--- a/public/data/downside_risk_-_month.xlsx
+++ b/public/data/downside_risk_-_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,7 +605,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -613,94 +613,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.52727956929032</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.739999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.78727956929032</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.71272043070968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>45.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-10717658.0736108</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1981842.999867839</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2530007.319867839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>132446.88</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-680611.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8735815.07374296</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-1231191.843945039</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-1624193.202746073</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-947411.8773698536</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-1298076.276658886</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-153861.7973707746</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-215439.1858183051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-715900.2171495708</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1017167.976588656</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-9967006.917687999</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10360008.27648903</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.521365556481977</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3939635168348701</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0846709266831529</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5129350659275052</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4019341024194333</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.08513083165306137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -708,7 +708,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -716,94 +716,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.41633749944444</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.41633749944444</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-31.08366250055556</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-12657161.89123788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5168662.169635393</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5700742.169635391</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115920</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-648000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7488499.721602493</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1926810.333215034</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-2602863.788752982</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-1883433.909119183</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-2560157.971240346</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-7904.363504414374</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-10840.95861926442</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-378709.5749084127</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-512084.3277162982</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-9415310.054817528</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-10091363.51035548</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8296890795349743</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1668288953997797</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.003482025065246082</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8303888534146445</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1660948748166234</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.003516271768731987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -811,7 +811,7 @@
         <v>2025</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -819,94 +819,94 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.08456720369892</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-23.13456720369892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-30.63456720369892</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.05</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-4645552.676655097</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-5156849.831854846</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-4600449.431854847</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69303.59999999998</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-625704</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9802402.508509941</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-1437630.716978396</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-1920103.689833746</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-1412594.80530905</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>-1891663.380284713</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-3992.443343545064</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-5604.742586523918</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>-295541.1655251871</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-396466.77724488</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-11240033.22548834</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-11722506.19834369</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8250519024225308</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1726162378229762</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002331859754492984</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8247088101545433</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1728476892533699</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.002443500592086813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -922,102 +922,102 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-24.23242916711111</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-25.14242916711111</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-32.64242916711111</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.91</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-3903364.360282851</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-6163280.778103041</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-5618046.378103042</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15069.59999999998</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-560304</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-10066645.1383859</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-1400890.192011301</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-1874307.954216442</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-1403003.599893459</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-1861338.56739282</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>-1126.296162764475</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-1572.153712818726</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>-225050.5994981653</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-300885.1875235828</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-11467535.3303972</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-11940953.09260234</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8611713703434899</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1381373028416864</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0006913268148236772</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8602190992088481</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1390543287024678</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0007265720886840459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1025,94 +1025,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-25.00186822589247</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5648400000000002</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-24.43702822589247</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-31.93702822589247</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.43516</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-3855996.780155612</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-5682082.961897599</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-5115382.2390176</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-9665.542079999985</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-557035.1808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9538079.742053211</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-824585.313908472</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-1079912.124304176</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-812159.6311112792</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-1068320.365865738</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-739.487153148818</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-996.9656548354471</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>-150149.441658595</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-195818.4814626709</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-10362665.05596168</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-10617991.86635739</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8433215778612405</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1559105614265147</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0007678607122447964</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8444313684762373</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1547806009861681</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.000788030537594663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1120,102 +1120,102 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-31.75</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-33.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-63.1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>32.35</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2843194.742661166</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-6945984</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-5929122</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-1057038</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-524844.3588693974</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-687176.4205039601</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-501130.4308172427</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-669603.8167121973</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>-155054.4652219749</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-201492.6325769741</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-4627633.616208231</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-4789965.677842794</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7620502560726455</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2357855114384476</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002164232488906854</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7670066988421534</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2308024463072997</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.002190854850546821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1223,102 +1223,102 @@
         <v>2026</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-33.91999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-35.91999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-63.48</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2887596.304339118</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-6593341.440000002</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-5721354.240000001</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>36288</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-908275.2000000001</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-3705745.135660884</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-503345.6417198641</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-659189.2977603066</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-483569.8633202754</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-646139.619975182</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-1285.48618065509</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-1727.542364702791</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>-137394.8707224767</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-178458.6060989827</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-4209090.777380748</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-4364934.433421191</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.7771308833714173</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2208032496527646</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00206586697581812</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7819429632406339</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.215966405641851</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002090631117515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1326,102 +1326,102 @@
         <v>2026</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-31.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-33.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-63.13</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.150000000000002</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2773281.062661167</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-6876070.319999999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-5841352.320000001</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-1074894</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-518820.9469086721</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-678748.2587255408</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-493712.1220775865</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-659691.5712364583</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>-158080.5294783417</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-205549.2395291689</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-4621610.204247506</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-4781537.516064375</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.755817710442039</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.242003504700274</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002178784857686961</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.760755289104676</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2370390618303191</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002205649065004946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1429,102 +1429,102 @@
         <v>2026</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.52</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-31.52</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-62.21</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4100000000000001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2387641.183220482</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-6358082.399999999</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-5334854.399999999</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-1062108</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-475670.3765633944</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-623005.3162226252</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-450902.8290899175</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-602490.3633023346</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-1377.306622130454</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-1850.938247895847</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>-153687.3147115353</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-199508.3457620247</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-4446111.593342911</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-4593446.533002142</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7441040418503131</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2536230528621707</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002272905287516168</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7495062855557831</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2481911218461053</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002302592598111635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1532,102 +1532,102 @@
         <v>2026</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.45</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-31.45</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-61.59</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2424955.142661168</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-6527744.400000002</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-5499610.800000001</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-1068309.6</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-490218.4545720057</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-639265.9928171611</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-464828.0688997728</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-621097.083533045</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-148777.7022969426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-193794.7821810363</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4593007.71191084</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-4742055.250155995</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7557823743908738</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2419035609543777</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002314064654748496</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.7603987026094616</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2372596891047919</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.002341608285746406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1635,102 +1635,102 @@
         <v>2026</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-29.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-61.32</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.169999999999998</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2300182.783220482</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-6270624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-5286060.000000001</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-1023444</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-470156.6861379878</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-613093.7384215968</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-446778.7178482392</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-596979.7807111528</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-1377.306622130454</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-1850.938247895847</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>-138986.1781840945</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-180505.8958229343</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-4440597.902917505</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-4583534.955201114</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.7609378372536619</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2367163824295704</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002345780316767665</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.7660101801814561</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2316148021268452</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.00237501769169878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1738,102 +1738,102 @@
         <v>2026</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-29.84</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-31.84</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-61.26</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.119999999999997</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2465644.502661167</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-6568433.76</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-5572440.96</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1036168.8</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-493776.6727183639</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-644482.2133123393</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-470983.6867901267</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-629322.1382895105</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-140741.0314655408</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-182778.2272342041</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-4596565.930057198</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-4747271.470651173</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.7681403782505399</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2295384578648594</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002321163884600571</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.7731106714082108</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2245396902132044</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.002349638378584811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1841,102 +1841,102 @@
         <v>2026</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-31.46</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-33.46</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.61</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.529999999999998</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>28.62</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2730039.782661167</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-6832829.040000001</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-5874966.24</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-998038.7999999999</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-517470.5994770679</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-676131.983362889</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-496553.1764885187</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-663487.7503548262</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-137126.0324750661</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-178422.2392760067</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-4620259.856815902</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-4778921.240701723</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.7818473939191707</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2159116811763764</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002240924904452908</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.786288172481526</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2114451945425768</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.002266632975897036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1944,102 +1944,102 @@
         <v>2026</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-33.13</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-35.13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-62.23</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2921492.383220483</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-6891933.6</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-5987253.6</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-943560</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-526872.9466327191</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-687644.0808054565</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-506043.7238397344</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-676168.8935029249</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-1377.306622130454</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-1850.938247895847</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>-135706.480842528</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-176009.411148115</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-4497314.163412236</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-4658085.297584973</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.7868481987551352</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2110102249665665</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002141576278298214</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.7917397432524936</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.2060929559632698</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.002167300784236592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2047,102 +2047,102 @@
         <v>2026</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-33.37</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-35.37</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.54</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3074444.822661167</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-7177234.08</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-6231647.279999999</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-985762.8</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-547075.8254107728</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-716962.4098243869</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-526699.9205156347</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-703769.4287775127</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-145476.3402747294</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-189366.0005973219</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-4649865.082749607</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-4819751.667163221</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.7819185406233602</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2159686061305702</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002112853246069561</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.7862923298245292</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2115707612617729</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.00213690891369779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2150,110 +2150,110 @@
         <v>2026</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-31.82</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-33.82</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.120000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2743285.183220483</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-6713726.4</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-5750510.399999999</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1002096</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-508631.7690700371</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-665553.5092365682</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-486034.1470745651</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-649432.3631531261</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1377.306622130454</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1850.938247895847</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-147399.6064780526</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-191685.9475291073</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4479072.985849554</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-4635994.726016086</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.765635915260789</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2321944523737142</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002169632365496774</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7704105030846211</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.2273937605344314</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.002195736380947468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2261,94 +2261,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-32.18</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-34.18</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-62.71</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>31.6</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2896561.862661166</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-6999351.120000001</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-6009421.92</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-1030105.2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-531553.7334333555</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-694687.0715066864</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-507917.3941322472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>-678672.466828299</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-1423.216842868136</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-1912.636189492375</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-151411.2578205919</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-196826.9986765629</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-4634342.99077219</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-4797476.328845521</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.7686961144097593</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2291499501871339</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.002153935403106925</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.7734933966806784</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.2243267425836433</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.002179860735678159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2356,102 +2356,102 @@
         <v>2027</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2459,102 +2459,102 @@
         <v>2027</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-7854815.163828517</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5400192</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5912928</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>141120</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-653856</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-2454623.163828517</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-319343.1253285815</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-418400.0483530359</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-312314.726511588</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-412428.0205138977</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-3979.315504657564</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5309.993292231675</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-65566.61244821222</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-86820.18994389659</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2773966.289157098</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>-2873023.212181553</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.171702980345452</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0104208576037727</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2562,102 +2562,102 @@
         <v>2027</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2665,102 +2665,102 @@
         <v>2027</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-342153.3485663375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-448285.7660925384</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-334622.9212624158</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-441887.1648363189</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-4263.552326418811</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-5689.27852739108</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-70249.94190879886</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-93021.63208274635</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2972106.738382605</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>-3078239.155908806</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.8178761620507752</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.1717029803454521</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01042085760377268</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.8174042507853615</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.1720717041138629</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.01052404510077576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2768,102 +2768,102 @@
         <v>2027</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2871,102 +2871,102 @@
         <v>2027</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-342153.3485663375</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-448285.7660925384</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-334622.9212624158</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>-441887.1648363189</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>-4263.552326418811</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-5689.27852739108</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-70249.94190879886</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-93021.63208274635</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>-2972106.738382605</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>-3078239.155908806</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.8178761620507752</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1717029803454521</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01042085760377268</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.8174042507853615</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.1720717041138629</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.01052404510077576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2974,102 +2974,102 @@
         <v>2027</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3077,102 +3077,102 @@
         <v>2027</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3180,102 +3180,102 @@
         <v>2027</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-342153.3485663375</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-448285.7660925384</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-334622.9212624158</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>-441887.1648363189</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>-4263.552326418811</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-5689.27852739108</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>-70249.94190879886</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>-93021.63208274635</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2972106.738382605</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>-3078239.155908806</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.8178761620507752</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1717029803454521</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01042085760377268</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.8174042507853615</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.1720717041138629</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.01052404510077576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3283,102 +3283,102 @@
         <v>2027</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3386,110 +3386,110 @@
         <v>2027</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-342153.3485663375</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-448285.7660925384</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-334622.9212624158</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-441887.1648363189</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-4263.552326418811</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-5689.27852739108</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-70249.94190879886</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-93021.63208274635</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2972106.738382605</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>-3078239.155908806</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.8178761620507752</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1717029803454521</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01042085760377268</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.8174042507853615</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.1720717041138629</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01052404510077576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3497,94 +3497,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-353558.4601852156</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-463228.6249622899</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-345777.0186378297</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-456616.7369975297</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>-4405.670737299462</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-5878.921144970783</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>-72591.60663909209</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-96122.35315217123</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>-3071176.96299536</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>-3180847.127772434</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.8178761620507753</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1717029803454519</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01042085760377273</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8174042507853614</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.1720717041138628</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.01052404510077575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3592,102 +3592,102 @@
         <v>2028</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3695,102 +3695,102 @@
         <v>2028</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-8151024.794935538</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>5195292</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5395044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>151032</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-350784</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2955732.794935538</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-138462.6545307819</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-180631.8102111838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-134411.537875141</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-175790.4244063022</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-4380.877854020075</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-5903.505856091699</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-33190.20288072198</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-43976.23354561721</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>-3094195.44946632</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>-3136364.605146722</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7815414078560668</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1929857979195504</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.0254727942243829</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7789706066587336</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.1948695069102267</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.02615988643103971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3798,102 +3798,102 @@
         <v>2028</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3901,102 +3901,102 @@
         <v>2028</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-143237.2288249471</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-186860.4933219139</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-139046.4184915249</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-181852.1631789329</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-4531.942607606965</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-6107.075023543136</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-34334.69263522967</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-45492.65539201784</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>-3200891.844275504</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>-3244515.108772471</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.7815414078560663</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1929857979195508</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.02547279422438288</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.778970606658733</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1948695069102271</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.02615988643103975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4004,102 +4004,102 @@
         <v>2028</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4107,102 +4107,102 @@
         <v>2028</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-143237.2288249471</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>-186860.4933219139</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-139046.4184915249</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>-181852.1631789329</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>-4531.942607606965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-6107.075023543136</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>-34334.69263522967</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>-45492.65539201784</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>-3200891.844275504</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>-3244515.108772471</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.7815414078560663</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.1929857979195508</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.02547279422438288</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.778970606658733</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.1948695069102271</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.02615988643103975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4210,102 +4210,102 @@
         <v>2028</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4313,102 +4313,102 @@
         <v>2028</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4416,102 +4416,102 @@
         <v>2028</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-143237.2288249471</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-186860.4933219139</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-139046.4184915249</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>-181852.1631789329</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>-4531.942607606965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>-6107.075023543136</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>-34334.69263522967</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-45492.65539201784</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>-3200891.844275504</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>-3244515.108772471</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.7815414078560663</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.1929857979195508</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.02547279422438288</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.778970606658733</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.1948695069102271</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.02615988643103975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4519,102 +4519,102 @@
         <v>2028</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-148011.8031191123</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-193089.1764326446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-143681.2991079097</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-187913.9019515642</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-4683.007361193883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-6310.644190994573</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-35479.1823897373</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-47009.07723841842</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>-3307588.239084688</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>-3352665.612398221</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.7815414078560671</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1929857979195499</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.02547279422438289</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.7789706066587333</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.1948695069102269</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4622,205 +4622,102 @@
         <v>2028</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-143237.2288249471</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-186860.4933219139</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-139046.4184915249</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-181852.1631789329</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-4531.942607606965</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6107.075023543136</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-34334.69263522967</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-45492.65539201784</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>-3200891.844275504</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>-3244515.108772471</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.7815414078560663</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1929857979195508</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.02547279422438288</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.778970606658733</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.1948695069102271</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.02615988643103975</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>744</v>
-      </c>
-      <c r="E42" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-8713164.435965575</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5553588</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5767116</v>
-      </c>
-      <c r="O42" t="n">
-        <v>161448</v>
-      </c>
-      <c r="P42" t="n">
-        <v>-374976</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-3159576.435965576</v>
-      </c>
-      <c r="R42" t="n">
-        <v>-148011.8031191123</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-193089.1764326446</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-143681.2991079097</v>
-      </c>
-      <c r="U42" t="n">
-        <v>-187913.9019515642</v>
-      </c>
-      <c r="V42" t="n">
-        <v>-4683.007361193883</v>
-      </c>
-      <c r="W42" t="n">
-        <v>-6310.644190994573</v>
-      </c>
-      <c r="X42" t="n">
-        <v>-35479.1823897373</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>-47009.07723841842</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>-3307588.239084688</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-3352665.612398221</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0.7815414078560671</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.1929857979195499</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.02547279422438289</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.7789706066587333</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.1948695069102269</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0.02615988643103972</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/downside_risk_-_month.xlsx
+++ b/public/data/downside_risk_-_month.xlsx
@@ -613,94 +613,94 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.41633749944444</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.41633749944444</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-31.08366250055556</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-12677810.61418092</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4445455.5358912</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4977535.535891199</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>115920</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-648000</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-8232355.078289717</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1934292.577485825</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-2609320.836849391</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-1780789.382606668</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-2483511.036196622</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-121532.4986648176</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-169361.6747855832</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-619899.126125208</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-884431.953659645</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-10166647.65577554</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-10841675.91513911</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.7060401833876988</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.2457751023035986</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.04818471430870252</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.7020913581522319</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.2500299062447857</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.04787873560298232</v>
       </c>
     </row>
     <row r="3">
@@ -716,94 +716,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-11.08456720369892</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-15.13456720369892</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-30.63456720369892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-6449528.570362898</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-3030475.7998656</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2474075.399865601</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69303.59999999998</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-625704</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>-9480004.370228494</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-804362.8389128966</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1112800.127086782</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-736290.6492241528</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1038520.451548273</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-4911.552865656839</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-6883.539693797571</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-322271.4079136542</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-444616.9723478784</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-10284367.20914139</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>-10592804.49731527</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.6923450119479266</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.303036582085572</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.004618405966501455</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.6969837854134193</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.298396454286556</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.004619760300024818</v>
       </c>
     </row>
     <row r="4">
@@ -819,94 +819,94 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-16.23242916711111</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-17.14242916711111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-32.64242916711111</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>38.91</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-5752093.083225883</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-4215061.986100478</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-3669827.586100478</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>15069.59999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-560304</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-9967155.069326365</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-1027275.863054189</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1369372.41294406</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-996757.0849812323</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1337791.143077626</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-813.3308402782592</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1114.464726958156</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-239081.2523744593</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-321211.3524074265</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-10994430.93238055</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>-11336527.48227043</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.8060128091164941</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.1933295029822194</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.0006576879012865021</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.805841501014952</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.1934871819913249</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.000671316993723038</v>
       </c>
     </row>
     <row r="5">
@@ -922,94 +922,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-25.00186822589247</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.5648400000000002</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-24.43702822589247</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-30.5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-31.93702822589247</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.43516</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-3877333.793863412</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-5719285.741817728</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-5152585.018937729</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-9665.542079999985</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-557035.1808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-9596619.535681136</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-1201023.123619514</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-1605162.979854323</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-1196939.197506628</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-1584565.849467202</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-659.9240747431285</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>-883.6507079149268</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-200184.0307291559</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-266496.6540360064</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-10797642.65930065</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-11201782.51553546</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.8563125085089877</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.14321536956448</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.0004721219265322222</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.8556219876393665</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.1439008652762511</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.0004771470843823409</v>
       </c>
     </row>
     <row r="6">
@@ -1025,94 +1025,94 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-21.45</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-23.45</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-63.1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>32.35</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1345235.814203487</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-5651758.800000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-4005658.800000001</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-1686276</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1053234.860596432</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-1374489.93849818</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-599166.504562091</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-804808.1195427952</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-849094.3514765792</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-1148243.673267132</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-5359757.846392947</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-5681012.924294695</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.4128459268358</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.5850546414683037</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.00209943169589633</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.411225458996542</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.5867075891920639</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.002066951811394165</v>
       </c>
     </row>
     <row r="7">
@@ -1128,94 +1128,94 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-23.24</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-25.24</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-63.48</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1472891.383151536</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-5362654.080000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-3919937.280000002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>36288</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-1479004.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-3889762.696848463</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-966318.0507020823</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-1252419.119640922</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-586344.2782895599</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-787585.1410615639</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-2752.058173080708</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>-3653.751817487955</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-743324.3819606152</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-1006998.176774388</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-4856080.747550545</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-5142181.816489385</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.4400594123029106</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.557875130341895</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.002065457355194391</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.4379762570534424</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.5599918908180771</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.002031852128480542</v>
       </c>
     </row>
     <row r="8">
@@ -1231,94 +1231,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-20.93</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-22.93</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-63.13</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1274540.934203486</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-5581063.919999999</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-3908551.920000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-1712688</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-1054719.097866653</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-1378468.870588656</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-584641.2559666471</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-785297.6196750915</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-861489.2695434667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-1166113.830774211</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-5361242.083663167</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>-5684991.85638517</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.4034297229460627</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.5944677591359614</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.002102517917975941</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.4015929524000792</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.5963383619180422</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.002068685681878628</v>
       </c>
     </row>
     <row r="9">
@@ -1334,94 +1334,94 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-19.41</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-21.41</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-62.21</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>975652.3105195034</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-5143255.199999999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-3507775.199999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-1674360</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-1002203.489046597</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-1314895.384586521</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-524693.0680600157</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-704774.4462136572</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-2948.633756872184</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>-3914.734090165665</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-844407.5592522034</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-1140255.6966918</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>-5169806.378527095</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-5482498.274067018</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.3824156194298581</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.6154353077631096</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.002149072807032182</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.3811765591188717</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.6167061608373193</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.002117280043808971</v>
       </c>
     </row>
     <row r="10">
@@ -1437,94 +1437,94 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-19.83000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-21.83000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-61.59</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1022324.934203486</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-5328847.920000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-3703133.520000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-1665890.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-1022076.122514607</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-1333177.558487181</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-553914.7685532076</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-744025.4084164882</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-841429.5613524489</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-1137708.340673366</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-5328599.108311122</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-5639700.544283696</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.3961085768929816</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.6017125468121338</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.002178876294884509</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.3945453939988994</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.6033094843926836</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.002145121608417028</v>
       </c>
     </row>
     <row r="11">
@@ -1540,94 +1540,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-61.32</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.42</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>987381.1105195042</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-5154984</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-3614400.000000002</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1579464</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-982116.3397916914</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1279433.111516504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-540642.0072746131</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-726197.2655472993</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-2948.633756872184</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-3914.734090165665</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-804397.3357329989</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1083398.54907433</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>-5149719.229272189</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>-5447036.000997001</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.4010733156331944</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.5967392510901752</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>0.002187433276630299</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.4004372988418207</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.5974040514095211</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.002158649748658175</v>
       </c>
     </row>
     <row r="12">
@@ -1643,94 +1643,94 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-20.58</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-22.58</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-61.26</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1100779.734203487</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-5407302.72</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-3843191.519999998</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-1604287.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-1016482.538198965</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-1319096.781620724</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-574864.6463350996</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-772165.5524564468</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-819241.2385504454</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-1101354.10034739</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-5323005.523995481</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-5625619.767417239</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.4114543832912717</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.5863648090442154</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.002180807664513094</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.4112590523457633</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.5865864414244717</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.0021545062297651</v>
       </c>
     </row>
     <row r="13">
@@ -1746,94 +1746,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-22.01</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-24.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-61.61</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>28.62</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1327052.454203486</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-5633575.440000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-4110235.439999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1563516</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1023051.917997444</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1326132.249577541</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-614809.0799725725</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-825819.427092633</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-796830.4018853962</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1072695.713340885</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>-5329574.903793959</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-5632655.235374056</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.4345903646857972</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.5632558565393234</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>0.002153778774879416</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.4340568856568952</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.5638169136193232</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.002126200723781598</v>
       </c>
     </row>
     <row r="14">
@@ -1849,94 +1849,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-23.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-25.13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-62.23</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1484490.710519504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-5652093.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-4180053.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1510920</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-1005797.190345592</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1302355.567795186</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-625252.4814130915</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-839847.1376054533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-2948.633756872184</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3914.734090165665</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-763035.029017351</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1031532.239447194</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>-5173400.079826089</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-5469958.457275683</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.4494222523080942</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.5484583132815852</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.002119434410320483</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.4478482242412879</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.5500642450258502</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>0.002087530732861955</v>
       </c>
     </row>
     <row r="15">
@@ -1952,94 +1952,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-62.54</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.139999999999997</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1543474.614203487</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-5849997.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-4295112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-1595061.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-1041464.877178975</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-1358624.320554062</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-642462.9186446676</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-862964.4172253761</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-806414.143289967</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-1086499.804170407</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>-5347987.862975489</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-5665147.306350577</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.4424907405298825</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.5554107187865633</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>0.002098540683554153</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.4417508288570005</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.5561784234261155</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.002070747716884047</v>
       </c>
     </row>
     <row r="16">
@@ -2055,94 +2055,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-21.48</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-23.48</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-62.5</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.219999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1281486.710519504</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-5449089.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-3881865.6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1606104</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1011281.612983699</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1316591.191231475</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-580649.5158129368</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-779935.8631978016</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-2948.633756872184</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-3914.734090165665</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-810185.0517711509</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1093695.788318272</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>-5178884.502464197</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>-5484194.080711972</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.4165995940073703</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.5812848447245391</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.002115561268090547</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.4154016482239766</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.5825133252114724</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.002085026564550969</v>
       </c>
     </row>
     <row r="17">
@@ -2158,94 +2158,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-21.85</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-23.85</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-62.71</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1385411.814203485</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-5691934.800000001</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-4080356.400000001</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1651754.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1049181.700952156</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1363956.494863039</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-610339.7727124341</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-819816.1963641068</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-3046.921548767929</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-4045.225226504521</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-833012.1535374742</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1124860.688376899</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>-5355704.68674867</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>-5670479.480659554</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.4219719710378164</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.5759214720097875</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>0.002106556952396044</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.4206942550560865</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.5772299101156362</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>0.002075834828277267</v>
       </c>
     </row>
     <row r="18">
@@ -2261,94 +2261,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-3216942.72320749</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>476718</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1023372</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-702894</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-148219.0688156445</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-189601.9794966906</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-108372.2201245564</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>-143241.4030233921</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>-97790.13324254188</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>-125256.557404092</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>-2888443.792023133</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>-2929826.70270418</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.5122456601740414</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.4622270477042918</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>0.02552729212166697</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.5194352578139915</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.4542169429704794</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.02634779921552901</v>
       </c>
     </row>
     <row r="19">
@@ -2364,94 +2364,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.760000000000005</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-35.48</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2674155.285477732</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>199113.6000000006</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>671731.2000000002</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>141120</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-613737.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-2475041.685477732</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-113188.8392099865</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-143828.3342083992</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-71134.44717163622</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-94022.23193773735</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-4877.988459897517</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-6562.62855601771</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-85465.31954207401</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-109472.8788420676</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>-2588230.524687719</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>-2618870.019686131</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.4405216501502529</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.5292699260662167</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.03020842378353044</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.4476018462115434</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.5211561315865232</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.03124202220193341</v>
       </c>
     </row>
     <row r="20">
@@ -2467,94 +2467,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.069999999999993</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-35.13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-3287585.52320749</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>547360.7999999998</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1104616.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-713496</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-155559.3314618255</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-199844.3551677452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-116975.8162260486</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-154613.2395992957</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-99649.14260457578</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-127540.8644923281</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>-2895784.054669315</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>-2940069.078375234</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>0.5268573627016491</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.4488182785292353</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>0.02432435876911556</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.5342177744738287</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.4406776351115926</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>0.02510459041457852</v>
       </c>
     </row>
     <row r="21">
@@ -2570,94 +2570,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.590000000000003</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-34.21</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-3402358.37729757</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>750528</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1298808</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-699480</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-169926.1680205621</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>-220248.5269172566</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>-137540.1188185076</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>-181794.1864522431</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>-5226.416207033062</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>-7031.387738590402</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>-97430.512632495</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>-124787.4319188235</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>-2821756.545318132</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>-2872078.904214826</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>0.5726136942961976</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>0.4056274362339586</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>0.02175886946984385</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.5796768083931998</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.3979026044448893</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>0.02242058716191071</v>
       </c>
     </row>
     <row r="22">
@@ -2673,94 +2673,94 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8.169999999999995</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-33.59</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-3473064.723207491</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>732840</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1276480.800000001</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-699880.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-167755.1129257497</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-216999.9855145325</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-135175.7310561275</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-178669.0477406293</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-96545.10966490401</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-123572.2124713685</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>-2907979.836133239</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>-2957224.708722021</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>0.5700695537993304</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.4071546508990337</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.02277579530163589</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.5772697607535143</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.3992549489192128</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>0.02347529032727288</v>
       </c>
     </row>
     <row r="23">
@@ -2776,94 +2776,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-33.32</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-3345982.37729757</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>694152</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1209600</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-666648</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-159538.9990451986</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-205720.9652579391</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-128093.2422058283</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-169307.7405841616</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-5226.416207033062</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-7031.387738590402</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-91387.29659903797</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-117210.8447177584</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>-2811369.376342769</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>-2857551.342555509</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>0.5700457389004498</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>0.4066954518350291</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>0.02325880926452097</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>0.5767595167205034</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.399287533579787</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>0.02395294969970941</v>
       </c>
     </row>
     <row r="24">
@@ -2879,94 +2879,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>7.420000000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-33.26</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-3378651.123207489</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>638426.3999999994</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1159300.8</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-677114.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-156123.5865061626</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-200951.8306462598</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>-122766.6982174359</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>-162267.3603715367</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>-93009.4370855178</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>-118957.3373572592</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>-2896348.309713652</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>-2941176.553853749</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>0.5550614595730232</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>0.420520830586455</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>0.02441770984052184</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>0.5624704453872855</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>0.4123440867727321</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>0.02518546783998234</v>
       </c>
     </row>
     <row r="25">
@@ -2982,94 +2982,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.990000000000002</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-33.61</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-3173827.92320749</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>433603.1999999993</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>935877.5999999996</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-658514.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-136623.7626294145</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-174281.2715486164</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-99106.80893833385</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-130994.8097878035</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-90570.94819218389</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-115657.7193760295</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>-2876848.485836904</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>-2914505.994756105</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>0.5080358227027891</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.4642797671592693</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>0.02768441013794171</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.5158935436976224</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.4554918687354012</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>0.02861458756697647</v>
       </c>
     </row>
     <row r="26">
@@ -3085,94 +3085,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.870000000000005</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-34.23</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-2907214.37729757</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>255384</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>736344</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-632160</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-118137.791694634</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-151117.5627034196</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-77976.76119279733</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-103066.0870806077</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-5226.416207033062</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-7031.387738590402</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-86934.92239554616</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-111301.0763857183</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>-2769968.168992204</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>-2802947.940000989</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>0.4583145179508836</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>0.5109668116671219</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>0.03071867038199452</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>0.4655228614626951</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.502718178506521</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>0.03175896003078389</v>
       </c>
     </row>
     <row r="27">
@@ -3188,94 +3188,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-34.54</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>19.14</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-3013421.52320749</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>273196.8000000007</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>781200</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-664243.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>-125663.0360709857</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>-159978.9580795815</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>-82726.88559126419</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>-109344.5824606044</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>-91965.7695767407</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>-117594.7395266114</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>-2865887.759278475</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>-2900203.681287071</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>0.4593557470899913</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>0.5106562937634717</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>0.02998795914653692</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>0.4668753474975161</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>0.5021015549640715</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>0.0310230975384124</v>
       </c>
     </row>
     <row r="28">
@@ -3291,94 +3291,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-34.5</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3119686.37729757</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>467856</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>985824</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-669168</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-141865.1092076128</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-181630.39647501</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-104395.9923977508</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-137985.8085760923</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-5226.416207033062</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-7031.387738590402</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-92828.8664102528</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-119033.915488946</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>-2793695.486505183</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>-2833460.77377258</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>0.5156598415593924</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>0.4585244839942753</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>0.02581567444633224</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>0.5225723445493783</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.4507987664807485</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>0.02662888896987319</v>
       </c>
     </row>
     <row r="29">
@@ -3394,94 +3394,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-34.71</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>19.26</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-3168991.923207491</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>428767.1999999993</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>960875.9999999981</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-688348.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-140727.3984471318</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-181080.1421427437</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-101754.0692772533</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-134493.8364265418</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5400.630080600808</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-7265.76732987675</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-95445.88971423659</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-122331.7084078602</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>-2880952.121654621</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>-2921304.865350233</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>0.5022397503545584</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>0.471103712735378</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>0.02665653691006357</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.5092702040227645</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.4632174659792042</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>0.02751232999803136</v>
       </c>
     </row>
     <row r="30">
@@ -3497,94 +3497,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-3773297.028858003</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>684591.5999999996</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>916161.5999999996</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-393018</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>-84778.06850604535</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>-107775.8812581551</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>-64266.47539554364</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>-85253.55558068701</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>-52695.14867557693</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>-66877.08670172787</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>-3173483.497364048</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>-3196481.310116158</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.5287337864976279</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>0.4335340520514253</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>0.03773216145094679</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>0.53919715883768</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.4229728003166325</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>0.03783004084568744</v>
       </c>
     </row>
     <row r="31">
@@ -3600,94 +3600,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.760000000000005</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-35.48</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3307716.190867164</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>418282.0799999991</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>622836.4800000004</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>151032</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-355586.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-2889434.110867164</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-65668.83623777081</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-83368.56786865566</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-43690.44207633984</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-57958.14239033738</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-4290.376521781912</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-5595.48865908302</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-47756.96338970204</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-60597.16761279778</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>-2955102.947104935</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>-2972802.67873582</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>0.4563552776049953</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>0.498830894116347</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>0.04481382827865778</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.4668366455541403</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.4880932564732573</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>0.0450700979726025</v>
       </c>
     </row>
     <row r="32">
@@ -3703,94 +3703,94 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.069999999999993</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-35.13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-3839520.468858003</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>750815.0399999991</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>988895.0399999991</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-399528</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-89333.96131535592</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-113993.297582964</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-69368.54672465556</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-92021.77678709278</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-53769.88768742914</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-68308.01020931349</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>-3178039.390173359</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>-3202698.726440967</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>0.5431098862173046</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>0.4209826926280023</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>0.03590742115469329</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.5533108569832073</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.4107241240861829</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>0.03596501893060989</v>
       </c>
     </row>
     <row r="33">
@@ -3806,94 +3806,94 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8.590000000000003</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-34.21</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-3916732.169862583</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>927662.4000000004</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1162742.4</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-391320</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-97880.06216377577</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>-126479.6461452728</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>-81563.51001936202</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>-108199.1690378869</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>-4438.320539774383</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>-5788.436543878986</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>-52530.1304260085</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>-66703.80274329866</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>-3086949.832026358</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>-3115549.416007855</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>0.5887703417993791</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>0.3791914158469281</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>0.03203824235369277</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>0.5988063851007026</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.3691586853056027</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>0.03203492959369472</v>
       </c>
     </row>
     <row r="34">
@@ -3909,94 +3909,94 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8.169999999999995</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-33.59</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-4003721.268858002</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>915015.8399999999</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1142754.239999999</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-389186.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-96086.83532006976</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-124174.7100594716</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-80161.38992085353</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-106339.167800643</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-51454.93609388471</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-65196.39314599107</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>-3184792.264178073</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>-3212880.138917475</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>0.5885452661649705</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>0.3777823599213669</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>0.03367237391366254</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>0.5990367149221676</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>0.3672685613655184</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>0.03369472371231387</v>
       </c>
     </row>
     <row r="35">
@@ -4012,94 +4012,94 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-33.32</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-3859045.769862585</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>869976</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1082880</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-369144</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-90678.99879651524</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-117422.6533466477</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-75961.35973863814</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-100767.5613856926</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-4438.320539774383</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-5788.436543878986</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-48642.19494878705</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-61219.20551477723</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>-3079748.768659097</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>-3106492.423209229</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>0.5886566636209803</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>0.3769489157154948</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.03439442066352481</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>0.600610574846463</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>0.3648882806158163</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>0.03450114453772077</v>
       </c>
     </row>
     <row r="36">
@@ -4115,94 +4115,94 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7.420000000000002</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-33.26</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-3913548.468858003</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>824843.0399999991</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1037850.239999999</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-374455.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-88602.3075337909</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-114246.2707100207</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-72802.63319617177</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>-96577.31029140296</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>-49182.98801303355</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>-61929.43806317863</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>-3177307.736391794</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>-3202951.699568024</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>0.5751880265907278</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>0.3885775084648965</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>0.03623446494437571</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>0.5871384680295532</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>0.3764979090909986</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>0.03636362287944827</v>
       </c>
     </row>
     <row r="37">
@@ -4218,94 +4218,94 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.990000000000002</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-33.61</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3724096.308858001</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>635390.8799999999</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>837833.2800000003</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-363890.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-76695.93384311748</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-97952.35535605573</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-58771.93704111549</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-77964.70197378864</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-47676.37859138483</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-60087.19563523707</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>-3165401.362701121</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>-3186657.784214059</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>0.5293120119912622</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>0.4293831571181455</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>0.04130483089059216</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>0.541296434204571</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>0.4171757720518323</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>0.04152779374359689</v>
       </c>
     </row>
     <row r="38">
@@ -4321,94 +4321,94 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.870000000000005</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-34.23</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-3453872.969862583</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>464803.2000000002</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>659203.2000000002</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-350640</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-66662.5203837812</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-84186.67004258973</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-46241.47774089546</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-61342.25299353994</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-4438.320539774383</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5788.436543878986</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-46114.3397081189</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-58373.59468950734</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>-3055732.290246363</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>-3073256.439905172</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>0.4777301466980513</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>0.4764166577263194</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>0.04585319557562934</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>0.4887662072366076</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>0.4651123668731589</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>0.04612142589023355</v>
       </c>
     </row>
     <row r="39">
@@ -4424,94 +4424,94 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-34.54</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>19.14</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-3579447.828858003</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>490742.4000000004</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>699359.9999999991</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-370065.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-70903.94102408546</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>-89598.82184417429</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-49058.37816453623</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-65079.05006159223</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>-49155.8612530796</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>-62307.32114934881</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>-3159609.369882089</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>-3178304.250702177</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>0.4772192379162272</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>0.4781675123387604</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.04461324974501232</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.4879668983667064</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.4671842969129252</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>0.04484880472036842</v>
       </c>
     </row>
     <row r="40">
@@ -4527,94 +4527,94 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-34.5</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-3654032.969862584</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>664963.2000000002</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>882547.2000000002</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-373824</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-81203.75846946613</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-103230.2747930372</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-61908.50818699083</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-82125.56252934023</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-4438.320539774383</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-5788.436543878986</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-50081.83455280834</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-63432.71077665011</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>-3070273.528332048</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>-3092300.044655619</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>0.5317290986870942</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>0.4301503868729444</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>0.03812051443996136</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>0.5426319647834165</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.4191218351530281</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>0.0382462000635555</v>
       </c>
     </row>
     <row r="41">
@@ -4630,94 +4630,94 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-34.71</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>19.26</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-3726015.828858003</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>637310.3999999994</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>860212.7999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-384350.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-80748.88635470255</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-102654.8534772083</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-60341.80514238076</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-80047.23157575965</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-4586.264557766881</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-5981.384428674952</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-51409.08759000062</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-65123.16870846189</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>-3169454.315212706</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>-3191360.282335212</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>0.518680416024663</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>0.4418974022356835</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.03942218173965351</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>0.5295817824963458</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>0.4308461777818855</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>0.03957203972176857</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/downside_risk_-_month.xlsx
+++ b/public/data/downside_risk_-_month.xlsx
@@ -640,10 +640,10 @@
         <v>-12677810.61418092</v>
       </c>
       <c r="M2" t="n">
-        <v>4445455.5358912</v>
+        <v>4335656.957893601</v>
       </c>
       <c r="N2" t="n">
-        <v>4977535.535891199</v>
+        <v>4867736.9578936</v>
       </c>
       <c r="O2" t="n">
         <v>115920</v>
@@ -652,55 +652,55 @@
         <v>-648000</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8232355.078289717</v>
+        <v>-8342153.656287315</v>
       </c>
       <c r="R2" t="n">
-        <v>-1934292.577485825</v>
+        <v>-1843104.884397343</v>
       </c>
       <c r="S2" t="n">
-        <v>-2609320.836849391</v>
+        <v>-2480092.735947589</v>
       </c>
       <c r="T2" t="n">
-        <v>-1780789.382606668</v>
+        <v>-1702752.660074351</v>
       </c>
       <c r="U2" t="n">
-        <v>-2483511.036196622</v>
+        <v>-2368033.139693492</v>
       </c>
       <c r="V2" t="n">
-        <v>-121532.4986648176</v>
+        <v>-118859.048876056</v>
       </c>
       <c r="W2" t="n">
-        <v>-169361.6747855832</v>
+        <v>-167929.272257223</v>
       </c>
       <c r="X2" t="n">
-        <v>-619899.126125208</v>
+        <v>-611712.1570731826</v>
       </c>
       <c r="Y2" t="n">
-        <v>-884431.953659645</v>
+        <v>-836866.2400280446</v>
       </c>
       <c r="Z2" t="n">
-        <v>-10166647.65577554</v>
+        <v>-10185258.54068466</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10841675.91513911</v>
+        <v>-10822246.3922349</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7060401833876988</v>
+        <v>0.6997640897086587</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2457751023035986</v>
+        <v>0.2513895357763496</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.04818471430870252</v>
+        <v>0.0488463745149918</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7020913581522319</v>
+        <v>0.7020911478275728</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2500299062447857</v>
+        <v>0.2481199984876417</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04787873560298232</v>
+        <v>0.04978885368478556</v>
       </c>
     </row>
     <row r="3">
@@ -719,16 +719,16 @@
         <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.08456720369892</v>
+        <v>1.915432796301079</v>
       </c>
       <c r="F3" t="n">
         <v>4.050000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.13456720369892</v>
+        <v>-2.134567203698921</v>
       </c>
       <c r="H3" t="n">
-        <v>-22.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>42.05</v>
       </c>
       <c r="L3" t="n">
-        <v>-6449528.570362898</v>
+        <v>-9341285.450362897</v>
       </c>
       <c r="M3" t="n">
-        <v>-3030475.7998656</v>
+        <v>-168778.0958781447</v>
       </c>
       <c r="N3" t="n">
-        <v>-2474075.399865601</v>
+        <v>387622.3041218542</v>
       </c>
       <c r="O3" t="n">
         <v>69303.59999999998</v>
@@ -755,55 +755,55 @@
         <v>-625704</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9480004.370228494</v>
+        <v>-9510063.546241041</v>
       </c>
       <c r="R3" t="n">
-        <v>-804362.8389128966</v>
+        <v>-335398.1979301059</v>
       </c>
       <c r="S3" t="n">
-        <v>-1112800.127086782</v>
+        <v>-441608.7585389673</v>
       </c>
       <c r="T3" t="n">
-        <v>-736290.6492241528</v>
+        <v>-116283.7306388427</v>
       </c>
       <c r="U3" t="n">
-        <v>-1038520.451548273</v>
+        <v>-164136.7638778897</v>
       </c>
       <c r="V3" t="n">
-        <v>-4911.552865656839</v>
+        <v>-4770.383632613461</v>
       </c>
       <c r="W3" t="n">
-        <v>-6883.539693797571</v>
+        <v>-6628.976641567882</v>
       </c>
       <c r="X3" t="n">
-        <v>-322271.4079136542</v>
+        <v>-312151.7592646024</v>
       </c>
       <c r="Y3" t="n">
-        <v>-444616.9723478784</v>
+        <v>-418891.7405218387</v>
       </c>
       <c r="Z3" t="n">
-        <v>-10284367.20914139</v>
+        <v>-9845461.744171146</v>
       </c>
       <c r="AA3" t="n">
-        <v>-10592804.49731527</v>
+        <v>-9951672.304780008</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6923450119479266</v>
+        <v>0.2684260249974743</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.303036582085572</v>
+        <v>0.7205621583951584</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.004618405966501455</v>
+        <v>0.01101181660736737</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6969837854134193</v>
+        <v>0.2783595038733927</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.298396454286556</v>
+        <v>0.7103984160128071</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004619760300024818</v>
+        <v>0.01124208011380021</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>720</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.23242916711111</v>
+        <v>-9.232429167111111</v>
       </c>
       <c r="F4" t="n">
         <v>0.9100000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.14242916711111</v>
+        <v>-10.14242916711111</v>
       </c>
       <c r="H4" t="n">
-        <v>-22.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,13 +843,13 @@
         <v>38.91</v>
       </c>
       <c r="L4" t="n">
-        <v>-5752093.083225883</v>
+        <v>-7353661.083225883</v>
       </c>
       <c r="M4" t="n">
-        <v>-4215061.986100478</v>
+        <v>-2619207.28809984</v>
       </c>
       <c r="N4" t="n">
-        <v>-3669827.586100478</v>
+        <v>-2073972.88809984</v>
       </c>
       <c r="O4" t="n">
         <v>15069.59999999998</v>
@@ -858,55 +858,55 @@
         <v>-560304</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9967155.069326365</v>
+        <v>-9972868.371325726</v>
       </c>
       <c r="R4" t="n">
-        <v>-1027275.863054189</v>
+        <v>-628007.0822974297</v>
       </c>
       <c r="S4" t="n">
-        <v>-1369372.41294406</v>
+        <v>-821996.9650368277</v>
       </c>
       <c r="T4" t="n">
-        <v>-996757.0849812323</v>
+        <v>-571211.3732413326</v>
       </c>
       <c r="U4" t="n">
-        <v>-1337791.143077626</v>
+        <v>-754590.4315592205</v>
       </c>
       <c r="V4" t="n">
-        <v>-813.3308402782592</v>
+        <v>-829.0240977173431</v>
       </c>
       <c r="W4" t="n">
-        <v>-1114.464726958156</v>
+        <v>-1154.545933590443</v>
       </c>
       <c r="X4" t="n">
-        <v>-239081.2523744593</v>
+        <v>-245281.1976137368</v>
       </c>
       <c r="Y4" t="n">
-        <v>-321211.3524074265</v>
+        <v>-322247.2980111113</v>
       </c>
       <c r="Z4" t="n">
-        <v>-10994430.93238055</v>
+        <v>-10600875.45362316</v>
       </c>
       <c r="AA4" t="n">
-        <v>-11336527.48227043</v>
+        <v>-10794865.33636255</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8060128091164941</v>
+        <v>0.6988820273057009</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1933295029822194</v>
+        <v>0.3001036545815307</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0006576879012865021</v>
+        <v>0.001014318112768368</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.805841501014952</v>
+        <v>0.6999961397742641</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1934871819913249</v>
+        <v>0.2989328451917453</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.000671316993723038</v>
+        <v>0.001071015033990605</v>
       </c>
     </row>
     <row r="5">
@@ -949,10 +949,10 @@
         <v>-3877333.793863412</v>
       </c>
       <c r="M5" t="n">
-        <v>-5719285.741817728</v>
+        <v>-5738073.145677392</v>
       </c>
       <c r="N5" t="n">
-        <v>-5152585.018937729</v>
+        <v>-5171372.422797393</v>
       </c>
       <c r="O5" t="n">
         <v>-9665.542079999985</v>
@@ -961,55 +961,55 @@
         <v>-557035.1808</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9596619.535681136</v>
+        <v>-9615406.939540802</v>
       </c>
       <c r="R5" t="n">
-        <v>-1201023.123619514</v>
+        <v>-1201584.424876513</v>
       </c>
       <c r="S5" t="n">
-        <v>-1605162.979854323</v>
+        <v>-1592815.928191561</v>
       </c>
       <c r="T5" t="n">
-        <v>-1196939.197506628</v>
+        <v>-1175765.158792799</v>
       </c>
       <c r="U5" t="n">
-        <v>-1584565.849467202</v>
+        <v>-1571884.057460841</v>
       </c>
       <c r="V5" t="n">
-        <v>-659.9240747431285</v>
+        <v>-645.3801887116502</v>
       </c>
       <c r="W5" t="n">
-        <v>-883.6507079149268</v>
+        <v>-875.4845459994906</v>
       </c>
       <c r="X5" t="n">
-        <v>-200184.0307291559</v>
+        <v>-199405.438260161</v>
       </c>
       <c r="Y5" t="n">
-        <v>-266496.6540360064</v>
+        <v>-260357.6378956214</v>
       </c>
       <c r="Z5" t="n">
-        <v>-10797642.65930065</v>
+        <v>-10816991.36441731</v>
       </c>
       <c r="AA5" t="n">
-        <v>-11201782.51553546</v>
+        <v>-11208222.86773236</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8563125085089877</v>
+        <v>0.8545947846528515</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.14321536956448</v>
+        <v>0.144936126312432</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0004721219265322222</v>
+        <v>0.0004690890347163666</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8556219876393665</v>
+        <v>0.8574924040286825</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1439008652762511</v>
+        <v>0.142030002637079</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0004771470843823409</v>
+        <v>0.0004775933342384987</v>
       </c>
     </row>
     <row r="6">
@@ -1049,13 +1049,13 @@
         <v>32.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1345235.814203487</v>
+        <v>1318935.414203487</v>
       </c>
       <c r="M6" t="n">
-        <v>-5651758.800000001</v>
+        <v>-5635800</v>
       </c>
       <c r="N6" t="n">
-        <v>-4005658.800000001</v>
+        <v>-3989700</v>
       </c>
       <c r="O6" t="n">
         <v>40176</v>
@@ -1064,55 +1064,55 @@
         <v>-1686276</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R6" t="n">
-        <v>-1053234.860596432</v>
+        <v>-1009214.206479906</v>
       </c>
       <c r="S6" t="n">
-        <v>-1374489.93849818</v>
+        <v>-1320903.882356604</v>
       </c>
       <c r="T6" t="n">
-        <v>-599166.504562091</v>
+        <v>-592800.2319365521</v>
       </c>
       <c r="U6" t="n">
-        <v>-804808.1195427952</v>
+        <v>-790022.1265681159</v>
       </c>
       <c r="V6" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W6" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X6" t="n">
-        <v>-849094.3514765792</v>
+        <v>-798715.4270784525</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1148243.673267132</v>
+        <v>-1068752.548141996</v>
       </c>
       <c r="Z6" t="n">
-        <v>-5359757.846392947</v>
+        <v>-5326078.792276422</v>
       </c>
       <c r="AA6" t="n">
-        <v>-5681012.924294695</v>
+        <v>-5637768.468153119</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4128459268358</v>
+        <v>0.4251105732274497</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5850546414683037</v>
+        <v>0.5727770583721191</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.00209943169589633</v>
+        <v>0.002112368400431427</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.411225458996542</v>
+        <v>0.4241148228825206</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5867075891920639</v>
+        <v>0.5737482311154024</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.002066951811394165</v>
+        <v>0.00213694600207704</v>
       </c>
     </row>
     <row r="7">
@@ -1152,13 +1152,13 @@
         <v>31.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1472891.383151536</v>
+        <v>1447933.303151536</v>
       </c>
       <c r="M7" t="n">
-        <v>-5362654.080000001</v>
+        <v>-5347036.8</v>
       </c>
       <c r="N7" t="n">
-        <v>-3919937.280000002</v>
+        <v>-3904320</v>
       </c>
       <c r="O7" t="n">
         <v>36288</v>
@@ -1167,55 +1167,55 @@
         <v>-1479004.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>-3889762.696848463</v>
+        <v>-3899103.496848463</v>
       </c>
       <c r="R7" t="n">
-        <v>-966318.0507020823</v>
+        <v>-925845.0191206227</v>
       </c>
       <c r="S7" t="n">
-        <v>-1252419.119640922</v>
+        <v>-1206298.556586267</v>
       </c>
       <c r="T7" t="n">
-        <v>-586344.2782895599</v>
+        <v>-580114.2445683938</v>
       </c>
       <c r="U7" t="n">
-        <v>-787585.1410615639</v>
+        <v>-773115.5698930812</v>
       </c>
       <c r="V7" t="n">
-        <v>-2752.058173080708</v>
+        <v>-2660.556326422685</v>
       </c>
       <c r="W7" t="n">
-        <v>-3653.751817487955</v>
+        <v>-3595.387376963283</v>
       </c>
       <c r="X7" t="n">
-        <v>-743324.3819606152</v>
+        <v>-700686.1039593699</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1006998.176774388</v>
+        <v>-936506.4576171953</v>
       </c>
       <c r="Z7" t="n">
-        <v>-4856080.747550545</v>
+        <v>-4824948.515969086</v>
       </c>
       <c r="AA7" t="n">
-        <v>-5142181.816489385</v>
+        <v>-5105402.053434731</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4400594123029106</v>
+        <v>0.4519921427870064</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.557875130341895</v>
+        <v>0.5459349025040811</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002065457355194391</v>
+        <v>0.002072954708912579</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4379762570534424</v>
+        <v>0.4512652995323223</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5599918908180771</v>
+        <v>0.546636083359469</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.002031852128480542</v>
+        <v>0.002098617108208606</v>
       </c>
     </row>
     <row r="8">
@@ -1255,13 +1255,13 @@
         <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>1274540.934203486</v>
+        <v>1248627.414203487</v>
       </c>
       <c r="M8" t="n">
-        <v>-5581063.919999999</v>
+        <v>-5565492</v>
       </c>
       <c r="N8" t="n">
-        <v>-3908551.920000001</v>
+        <v>-3892980</v>
       </c>
       <c r="O8" t="n">
         <v>40176</v>
@@ -1270,55 +1270,55 @@
         <v>-1712688</v>
       </c>
       <c r="Q8" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R8" t="n">
-        <v>-1054719.097866653</v>
+        <v>-1008075.409395553</v>
       </c>
       <c r="S8" t="n">
-        <v>-1378468.870588656</v>
+        <v>-1322381.874685122</v>
       </c>
       <c r="T8" t="n">
-        <v>-584641.2559666471</v>
+        <v>-578429.3172229391</v>
       </c>
       <c r="U8" t="n">
-        <v>-785297.6196750915</v>
+        <v>-770870.0750149498</v>
       </c>
       <c r="V8" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W8" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X8" t="n">
-        <v>-861489.2695434667</v>
+        <v>-811123.7491104903</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1166113.830774211</v>
+        <v>-1084925.051225851</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5361242.083663167</v>
+        <v>-5324939.995192069</v>
       </c>
       <c r="AA8" t="n">
-        <v>-5684991.85638517</v>
+        <v>-5639246.460481637</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4034297229460627</v>
+        <v>0.4153894898353231</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5944677591359614</v>
+        <v>0.5824951645845783</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.002102517917975941</v>
+        <v>0.00211534558009865</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4015929524000792</v>
+        <v>0.4144962540638465</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5963383619180422</v>
+        <v>0.583363376330857</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002068685681878628</v>
+        <v>0.002140369605296575</v>
       </c>
     </row>
     <row r="9">
@@ -1358,13 +1358,13 @@
         <v>33.1</v>
       </c>
       <c r="L9" t="n">
-        <v>975652.3105195034</v>
+        <v>951669.1105195042</v>
       </c>
       <c r="M9" t="n">
-        <v>-5143255.199999999</v>
+        <v>-5129280</v>
       </c>
       <c r="N9" t="n">
-        <v>-3507775.199999999</v>
+        <v>-3493800</v>
       </c>
       <c r="O9" t="n">
         <v>38880</v>
@@ -1373,55 +1373,55 @@
         <v>-1674360</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
       <c r="R9" t="n">
-        <v>-1002203.489046597</v>
+        <v>-958970.0567683782</v>
       </c>
       <c r="S9" t="n">
-        <v>-1314895.384586521</v>
+        <v>-1259947.694527603</v>
       </c>
       <c r="T9" t="n">
-        <v>-524693.0680600157</v>
+        <v>-519118.0916710349</v>
       </c>
       <c r="U9" t="n">
-        <v>-704774.4462136572</v>
+        <v>-691826.2791196543</v>
       </c>
       <c r="V9" t="n">
-        <v>-2948.633756872184</v>
+        <v>-2850.596064024301</v>
       </c>
       <c r="W9" t="n">
-        <v>-3914.734090165665</v>
+        <v>-3852.200761032089</v>
       </c>
       <c r="X9" t="n">
-        <v>-844407.5592522034</v>
+        <v>-792918.1249312954</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1140255.6966918</v>
+        <v>-1061685.235959194</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5169806.378527095</v>
+        <v>-5136580.946248876</v>
       </c>
       <c r="AA9" t="n">
-        <v>-5482498.274067018</v>
+        <v>-5437558.5840081</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3824156194298581</v>
+        <v>0.3948005917089977</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6154353077631096</v>
+        <v>0.603031468026818</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002149072807032182</v>
+        <v>0.002167940264184263</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3811765591188717</v>
+        <v>0.3936727911723251</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6167061608373193</v>
+        <v>0.6041351749724687</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002117280043808971</v>
+        <v>0.002192033855206259</v>
       </c>
     </row>
     <row r="10">
@@ -1461,13 +1461,13 @@
         <v>31.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1022324.934203486</v>
+        <v>997229.8142034872</v>
       </c>
       <c r="M10" t="n">
-        <v>-5328847.920000001</v>
+        <v>-5314094.4</v>
       </c>
       <c r="N10" t="n">
-        <v>-3703133.520000001</v>
+        <v>-3688380</v>
       </c>
       <c r="O10" t="n">
         <v>40176</v>
@@ -1476,55 +1476,55 @@
         <v>-1665890.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R10" t="n">
-        <v>-1022076.122514607</v>
+        <v>-980336.9743156913</v>
       </c>
       <c r="S10" t="n">
-        <v>-1333177.558487181</v>
+        <v>-1283443.080619189</v>
       </c>
       <c r="T10" t="n">
-        <v>-553914.7685532076</v>
+        <v>-548029.3053287584</v>
       </c>
       <c r="U10" t="n">
-        <v>-744025.4084164882</v>
+        <v>-730356.1198063302</v>
       </c>
       <c r="V10" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W10" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X10" t="n">
-        <v>-841429.5613524489</v>
+        <v>-794004.2196470882</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1137708.340673366</v>
+        <v>-1062409.023071408</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5328599.108311122</v>
+        <v>-5297201.560112206</v>
       </c>
       <c r="AA10" t="n">
-        <v>-5639700.544283696</v>
+        <v>-5600307.666415704</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.3961085768929816</v>
+        <v>0.4074630517752925</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6017125468121338</v>
+        <v>0.5903468652388593</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002178876294884509</v>
+        <v>0.002190082985848427</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3945453939988994</v>
+        <v>0.4064882967842624</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.6033094843926836</v>
+        <v>0.5912962492750041</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002145121608417028</v>
+        <v>0.002215453940733468</v>
       </c>
     </row>
     <row r="11">
@@ -1564,13 +1564,13 @@
         <v>29.9</v>
       </c>
       <c r="L11" t="n">
-        <v>987381.1105195042</v>
+        <v>962973.1105195042</v>
       </c>
       <c r="M11" t="n">
-        <v>-5154984</v>
+        <v>-5140584</v>
       </c>
       <c r="N11" t="n">
-        <v>-3614400.000000002</v>
+        <v>-3600000</v>
       </c>
       <c r="O11" t="n">
         <v>38880</v>
@@ -1579,55 +1579,55 @@
         <v>-1579464</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
       <c r="R11" t="n">
-        <v>-982116.3397916914</v>
+        <v>-944568.4195528282</v>
       </c>
       <c r="S11" t="n">
-        <v>-1279433.111516504</v>
+        <v>-1234851.338714521</v>
       </c>
       <c r="T11" t="n">
-        <v>-540642.0072746131</v>
+        <v>-534897.5699856103</v>
       </c>
       <c r="U11" t="n">
-        <v>-726197.2655472993</v>
+        <v>-712855.5168672375</v>
       </c>
       <c r="V11" t="n">
-        <v>-2948.633756872184</v>
+        <v>-2850.596064024301</v>
       </c>
       <c r="W11" t="n">
-        <v>-3914.734090165665</v>
+        <v>-3852.200761032089</v>
       </c>
       <c r="X11" t="n">
-        <v>-804397.3357329989</v>
+        <v>-760720.2197872543</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1083398.54907433</v>
+        <v>-1014059.531863562</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5149719.229272189</v>
+        <v>-5122179.309033325</v>
       </c>
       <c r="AA11" t="n">
-        <v>-5447036.000997001</v>
+        <v>-5412462.228195019</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4010733156331944</v>
+        <v>0.4119450083036547</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5967392510901752</v>
+        <v>0.5858596390061163</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002187433276630299</v>
+        <v>0.002195352690228984</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4004372988418207</v>
+        <v>0.4118725478983601</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5974040514095211</v>
+        <v>0.5859017335585122</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.002158649748658175</v>
+        <v>0.002225718543127696</v>
       </c>
     </row>
     <row r="12">
@@ -1667,13 +1667,13 @@
         <v>29.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1100779.734203487</v>
+        <v>1075126.614203486</v>
       </c>
       <c r="M12" t="n">
-        <v>-5407302.72</v>
+        <v>-5391991.2</v>
       </c>
       <c r="N12" t="n">
-        <v>-3843191.519999998</v>
+        <v>-3827880</v>
       </c>
       <c r="O12" t="n">
         <v>40176</v>
@@ -1682,55 +1682,55 @@
         <v>-1604287.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R12" t="n">
-        <v>-1016482.538198965</v>
+        <v>-976834.5517176646</v>
       </c>
       <c r="S12" t="n">
-        <v>-1319096.781620724</v>
+        <v>-1275141.421463507</v>
       </c>
       <c r="T12" t="n">
-        <v>-574864.6463350996</v>
+        <v>-568756.5861656986</v>
       </c>
       <c r="U12" t="n">
-        <v>-772165.5524564468</v>
+        <v>-757979.2710849334</v>
       </c>
       <c r="V12" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W12" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X12" t="n">
-        <v>-819241.2385504454</v>
+        <v>-772248.5402937958</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1101354.10034739</v>
+        <v>-1031266.914138259</v>
       </c>
       <c r="Z12" t="n">
-        <v>-5323005.523995481</v>
+        <v>-5293699.13751418</v>
       </c>
       <c r="AA12" t="n">
-        <v>-5625619.767417239</v>
+        <v>-5592006.007260023</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.4114543832912717</v>
+        <v>0.4231974939448116</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.5863648090442154</v>
+        <v>0.5746107472057669</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002180807664513094</v>
+        <v>0.002191758849421615</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.4112590523457633</v>
+        <v>0.4226901327710508</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5865864414244717</v>
+        <v>0.5750900657686299</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0021545062297651</v>
+        <v>0.002219801460319321</v>
       </c>
     </row>
     <row r="13">
@@ -1770,13 +1770,13 @@
         <v>28.62</v>
       </c>
       <c r="L13" t="n">
-        <v>1327052.454203486</v>
+        <v>1300335.414203487</v>
       </c>
       <c r="M13" t="n">
-        <v>-5633575.440000001</v>
+        <v>-5617200</v>
       </c>
       <c r="N13" t="n">
-        <v>-4110235.439999999</v>
+        <v>-4093860</v>
       </c>
       <c r="O13" t="n">
         <v>40176</v>
@@ -1785,55 +1785,55 @@
         <v>-1563516</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R13" t="n">
-        <v>-1023051.917997444</v>
+        <v>-986441.0501277825</v>
       </c>
       <c r="S13" t="n">
-        <v>-1326132.249577541</v>
+        <v>-1285301.46337821</v>
       </c>
       <c r="T13" t="n">
-        <v>-614809.0799725725</v>
+        <v>-608276.6016281366</v>
       </c>
       <c r="U13" t="n">
-        <v>-825819.427092633</v>
+        <v>-810647.4128561417</v>
       </c>
       <c r="V13" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W13" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X13" t="n">
-        <v>-796830.4018853962</v>
+        <v>-752122.1118389395</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1072695.713340885</v>
+        <v>-1004143.548951257</v>
       </c>
       <c r="Z13" t="n">
-        <v>-5329574.903793959</v>
+        <v>-5303305.635924298</v>
       </c>
       <c r="AA13" t="n">
-        <v>-5632655.235374056</v>
+        <v>-5602166.049174725</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4345903646857972</v>
+        <v>0.4461650578734426</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5632558565393234</v>
+        <v>0.5516743610691502</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002153778774879416</v>
+        <v>0.002160581057407323</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4340568856568952</v>
+        <v>0.4457115047085111</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5638169136193232</v>
+        <v>0.5520998711012147</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.002126200723781598</v>
+        <v>0.00218862419027424</v>
       </c>
     </row>
     <row r="14">
@@ -1873,13 +1873,13 @@
         <v>29.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1484490.710519504</v>
+        <v>1457829.110519504</v>
       </c>
       <c r="M14" t="n">
-        <v>-5652093.6</v>
+        <v>-5635440</v>
       </c>
       <c r="N14" t="n">
-        <v>-4180053.6</v>
+        <v>-4163400</v>
       </c>
       <c r="O14" t="n">
         <v>38880</v>
@@ -1888,55 +1888,55 @@
         <v>-1510920</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
       <c r="R14" t="n">
-        <v>-1005797.190345592</v>
+        <v>-971248.6525127828</v>
       </c>
       <c r="S14" t="n">
-        <v>-1302355.567795186</v>
+        <v>-1261303.729326993</v>
       </c>
       <c r="T14" t="n">
-        <v>-625252.4814130915</v>
+        <v>-618609.039688358</v>
       </c>
       <c r="U14" t="n">
-        <v>-839847.1376054533</v>
+        <v>-824417.4052569601</v>
       </c>
       <c r="V14" t="n">
-        <v>-2948.633756872184</v>
+        <v>-2850.596064024301</v>
       </c>
       <c r="W14" t="n">
-        <v>-3914.734090165665</v>
+        <v>-3852.200761032089</v>
       </c>
       <c r="X14" t="n">
-        <v>-763035.029017351</v>
+        <v>-720439.3432640142</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1031532.239447194</v>
+        <v>-963078.1364959409</v>
       </c>
       <c r="Z14" t="n">
-        <v>-5173400.079826089</v>
+        <v>-5148859.54199328</v>
       </c>
       <c r="AA14" t="n">
-        <v>-5469958.457275683</v>
+        <v>-5438914.61880749</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4494222523080942</v>
+        <v>0.4609952383612323</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.5484583132815852</v>
+        <v>0.5368804615918941</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002119434410320483</v>
+        <v>0.0021243000468737</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4478482242412879</v>
+        <v>0.4602218685356943</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.5500642450258502</v>
+        <v>0.5376276831344766</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.002087530732861955</v>
+        <v>0.002150448329829029</v>
       </c>
     </row>
     <row r="15">
@@ -1976,13 +1976,13 @@
         <v>30.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1543474.614203487</v>
+        <v>1516021.014203486</v>
       </c>
       <c r="M15" t="n">
-        <v>-5849997.6</v>
+        <v>-5832885.6</v>
       </c>
       <c r="N15" t="n">
-        <v>-4295112</v>
+        <v>-4278000</v>
       </c>
       <c r="O15" t="n">
         <v>40176</v>
@@ -1991,55 +1991,55 @@
         <v>-1595061.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R15" t="n">
-        <v>-1041464.877178975</v>
+        <v>-1008144.960585331</v>
       </c>
       <c r="S15" t="n">
-        <v>-1358624.320554062</v>
+        <v>-1312103.887636242</v>
       </c>
       <c r="T15" t="n">
-        <v>-642462.9186446676</v>
+        <v>-635636.6123328998</v>
       </c>
       <c r="U15" t="n">
-        <v>-862964.4172253761</v>
+        <v>-847109.9725439007</v>
       </c>
       <c r="V15" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W15" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X15" t="n">
-        <v>-806414.143289967</v>
+        <v>-754985.8642313872</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1086499.804170407</v>
+        <v>-1012103.243854743</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5347987.862975489</v>
+        <v>-5325009.546381846</v>
       </c>
       <c r="AA15" t="n">
-        <v>-5665147.306350577</v>
+        <v>-5628968.473432758</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.4424907405298825</v>
+        <v>0.4561216748253133</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5554107187865633</v>
+        <v>0.5417646028896516</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002098540683554153</v>
+        <v>0.002113722285035182</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4417508288570005</v>
+        <v>0.4546547770283514</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5561784234261155</v>
+        <v>0.5432087799445686</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.002070747716884047</v>
+        <v>0.002136443027079992</v>
       </c>
     </row>
     <row r="16">
@@ -2079,13 +2079,13 @@
         <v>31.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1281486.710519504</v>
+        <v>1256013.110519504</v>
       </c>
       <c r="M16" t="n">
-        <v>-5449089.6</v>
+        <v>-5433624</v>
       </c>
       <c r="N16" t="n">
-        <v>-3881865.6</v>
+        <v>-3866400</v>
       </c>
       <c r="O16" t="n">
         <v>38880</v>
@@ -2094,55 +2094,55 @@
         <v>-1606104</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
       <c r="R16" t="n">
-        <v>-1011281.612983699</v>
+        <v>-968781.0182616138</v>
       </c>
       <c r="S16" t="n">
-        <v>-1316591.191231475</v>
+        <v>-1266114.764612092</v>
       </c>
       <c r="T16" t="n">
-        <v>-580649.5158129368</v>
+        <v>-574479.9901645457</v>
       </c>
       <c r="U16" t="n">
-        <v>-779935.8631978016</v>
+        <v>-765606.8251154134</v>
       </c>
       <c r="V16" t="n">
-        <v>-2948.633756872184</v>
+        <v>-2850.596064024301</v>
       </c>
       <c r="W16" t="n">
-        <v>-3914.734090165665</v>
+        <v>-3852.200761032089</v>
       </c>
       <c r="X16" t="n">
-        <v>-810185.0517711509</v>
+        <v>-760656.1858007089</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1093695.788318272</v>
+        <v>-1018140.540319552</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5178884.502464197</v>
+        <v>-5146391.907742111</v>
       </c>
       <c r="AA16" t="n">
-        <v>-5484194.080711972</v>
+        <v>-5443725.654092589</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4165995940073703</v>
+        <v>0.4293614871044289</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5812848447245391</v>
+        <v>0.5685080015006782</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002115561268090547</v>
+        <v>0.002130511394892865</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4154016482239766</v>
+        <v>0.4282876543456657</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5825133252114724</v>
+        <v>0.5695573883395765</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.002085026564550969</v>
+        <v>0.002154957314757886</v>
       </c>
     </row>
     <row r="17">
@@ -2182,13 +2182,13 @@
         <v>31.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1385411.814203485</v>
+        <v>1358813.814203487</v>
       </c>
       <c r="M17" t="n">
-        <v>-5691934.800000001</v>
+        <v>-5675678.4</v>
       </c>
       <c r="N17" t="n">
-        <v>-4080356.400000001</v>
+        <v>-4064100</v>
       </c>
       <c r="O17" t="n">
         <v>40176</v>
@@ -2197,55 +2197,55 @@
         <v>-1651754.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
       <c r="R17" t="n">
-        <v>-1049181.700952156</v>
+        <v>-1006485.205870221</v>
       </c>
       <c r="S17" t="n">
-        <v>-1363956.494863039</v>
+        <v>-1312835.133500755</v>
       </c>
       <c r="T17" t="n">
-        <v>-610339.7727124341</v>
+        <v>-603854.7817162555</v>
       </c>
       <c r="U17" t="n">
-        <v>-819816.1963641068</v>
+        <v>-804754.4739167063</v>
       </c>
       <c r="V17" t="n">
-        <v>-3046.921548767929</v>
+        <v>-2945.615932825116</v>
       </c>
       <c r="W17" t="n">
-        <v>-4045.225226504521</v>
+        <v>-3980.607453066492</v>
       </c>
       <c r="X17" t="n">
-        <v>-833012.1535374742</v>
+        <v>-782221.7037509274</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1124860.688376899</v>
+        <v>-1047350.171958694</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5355704.68674867</v>
+        <v>-5323349.791666737</v>
       </c>
       <c r="AA17" t="n">
-        <v>-5670479.480659554</v>
+        <v>-5629699.719297271</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.4219719710378164</v>
+        <v>0.4347337462144229</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5759214720097875</v>
+        <v>0.5631456137109114</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002106556952396044</v>
+        <v>0.002120640074665624</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4206942550560865</v>
+        <v>0.4335762446652503</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5772299101156362</v>
+        <v>0.5642791300025199</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.002075834828277267</v>
+        <v>0.002144625332229852</v>
       </c>
     </row>
     <row r="18">
@@ -2303,52 +2303,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R18" t="n">
-        <v>-148219.0688156445</v>
+        <v>-142754.7542907282</v>
       </c>
       <c r="S18" t="n">
-        <v>-189601.9794966906</v>
+        <v>-180252.6020873167</v>
       </c>
       <c r="T18" t="n">
-        <v>-108372.2201245564</v>
+        <v>-104773.237856672</v>
       </c>
       <c r="U18" t="n">
-        <v>-143241.4030233921</v>
+        <v>-135226.8492793747</v>
       </c>
       <c r="V18" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W18" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X18" t="n">
-        <v>-97790.13324254188</v>
+        <v>-95643.53311064906</v>
       </c>
       <c r="Y18" t="n">
-        <v>-125256.557404092</v>
+        <v>-125137.5574482234</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2888443.792023133</v>
+        <v>-2882979.477498217</v>
       </c>
       <c r="AA18" t="n">
-        <v>-2929826.70270418</v>
+        <v>-2920477.325294806</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5122456601740414</v>
+        <v>0.5096452379426565</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4622270477042918</v>
+        <v>0.465235895988386</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02552729212166697</v>
+        <v>0.0251188660689576</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5194352578139915</v>
+        <v>0.5060879102706834</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.4542169429704794</v>
+        <v>0.4683286291356965</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.02634779921552901</v>
+        <v>0.02558346059362007</v>
       </c>
     </row>
     <row r="19">
@@ -2406,52 +2406,52 @@
         <v>-2475041.685477732</v>
       </c>
       <c r="R19" t="n">
-        <v>-113188.8392099865</v>
+        <v>-109684.5331190598</v>
       </c>
       <c r="S19" t="n">
-        <v>-143828.3342083992</v>
+        <v>-138030.0886891722</v>
       </c>
       <c r="T19" t="n">
-        <v>-71134.44717163622</v>
+        <v>-68772.11101471119</v>
       </c>
       <c r="U19" t="n">
-        <v>-94022.23193773735</v>
+        <v>-88761.55859125793</v>
       </c>
       <c r="V19" t="n">
-        <v>-4877.988459897517</v>
+        <v>-4664.217161725486</v>
       </c>
       <c r="W19" t="n">
-        <v>-6562.62855601771</v>
+        <v>-6174.369185784322</v>
       </c>
       <c r="X19" t="n">
-        <v>-85465.31954207401</v>
+        <v>-83546.3094430981</v>
       </c>
       <c r="Y19" t="n">
-        <v>-109472.8788420676</v>
+        <v>-109336.7464030436</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2588230.524687719</v>
+        <v>-2584726.218596792</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2618870.019686131</v>
+        <v>-2613071.774166904</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.4405216501502529</v>
+        <v>0.4380873710466517</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.5292699260662167</v>
+        <v>0.5322009536212664</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.03020842378353044</v>
+        <v>0.02971167533208192</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4476018462115434</v>
+        <v>0.4345248768467492</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.5211561315865232</v>
+        <v>0.5352490089137072</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.03124202220193341</v>
+        <v>0.0302261142395435</v>
       </c>
     </row>
     <row r="20">
@@ -2509,52 +2509,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R20" t="n">
-        <v>-155559.3314618255</v>
+        <v>-150247.1039829609</v>
       </c>
       <c r="S20" t="n">
-        <v>-199844.3551677452</v>
+        <v>-189529.8426210204</v>
       </c>
       <c r="T20" t="n">
-        <v>-116975.8162260486</v>
+        <v>-113091.1132285</v>
       </c>
       <c r="U20" t="n">
-        <v>-154613.2395992957</v>
+        <v>-145962.4159397226</v>
       </c>
       <c r="V20" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W20" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X20" t="n">
-        <v>-99649.14260457578</v>
+        <v>-97474.16110818423</v>
       </c>
       <c r="Y20" t="n">
-        <v>-127540.8644923281</v>
+        <v>-127311.1611421517</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2895784.054669315</v>
+        <v>-2890471.82719045</v>
       </c>
       <c r="AA20" t="n">
-        <v>-2940069.078375234</v>
+        <v>-2929754.56582851</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.5268573627016491</v>
+        <v>0.524227123629722</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4488182785292353</v>
+        <v>0.451835671674034</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.02432435876911556</v>
+        <v>0.02393720469624394</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.5342177744738287</v>
+        <v>0.5210905853856396</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4406776351115926</v>
+        <v>0.4545049974582886</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.02510459041457852</v>
+        <v>0.02440441715607182</v>
       </c>
     </row>
     <row r="21">
@@ -2612,52 +2612,52 @@
         <v>-2651830.37729757</v>
       </c>
       <c r="R21" t="n">
-        <v>-169926.1680205621</v>
+        <v>-163117.2317046339</v>
       </c>
       <c r="S21" t="n">
-        <v>-220248.5269172566</v>
+        <v>-207903.526085596</v>
       </c>
       <c r="T21" t="n">
-        <v>-137540.1188185076</v>
+        <v>-132972.4865583066</v>
       </c>
       <c r="U21" t="n">
-        <v>-181794.1864522431</v>
+        <v>-171622.5513878092</v>
       </c>
       <c r="V21" t="n">
-        <v>-5226.416207033062</v>
+        <v>-4997.375530420179</v>
       </c>
       <c r="W21" t="n">
-        <v>-7031.387738590402</v>
+        <v>-6615.395556197487</v>
       </c>
       <c r="X21" t="n">
-        <v>-97430.512632495</v>
+        <v>-95153.81787635195</v>
       </c>
       <c r="Y21" t="n">
-        <v>-124787.4319188235</v>
+        <v>-124626.8644321255</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2821756.545318132</v>
+        <v>-2814947.609002204</v>
       </c>
       <c r="AA21" t="n">
-        <v>-2872078.904214826</v>
+        <v>-2859733.903383166</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.5726136942961976</v>
+        <v>0.5703945930255798</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4056274362339586</v>
+        <v>0.4081688221917469</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02175886946984385</v>
+        <v>0.02143658478267317</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5796768083931998</v>
+        <v>0.5666638874552801</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3979026044448893</v>
+        <v>0.4114933784015919</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.02242058716191071</v>
+        <v>0.02184273414312808</v>
       </c>
     </row>
     <row r="22">
@@ -2715,52 +2715,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R22" t="n">
-        <v>-167755.1129257497</v>
+        <v>-161553.5260564601</v>
       </c>
       <c r="S22" t="n">
-        <v>-216999.9855145325</v>
+        <v>-205145.4637549139</v>
       </c>
       <c r="T22" t="n">
-        <v>-135175.7310561275</v>
+        <v>-130686.6188227509</v>
       </c>
       <c r="U22" t="n">
-        <v>-178669.0477406293</v>
+        <v>-168672.268490458</v>
       </c>
       <c r="V22" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W22" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X22" t="n">
-        <v>-96545.10966490401</v>
+        <v>-95031.14420925394</v>
       </c>
       <c r="Y22" t="n">
-        <v>-123572.2124713685</v>
+        <v>-123916.2733508404</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2907979.836133239</v>
+        <v>-2901778.249263949</v>
       </c>
       <c r="AA22" t="n">
-        <v>-2957224.708722021</v>
+        <v>-2945370.186962403</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.5700695537993304</v>
+        <v>0.5660327725302446</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4071546508990337</v>
+        <v>0.4116009926497631</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02277579530163589</v>
+        <v>0.0223662348199923</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5772697607535143</v>
+        <v>0.5633216264143062</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.3992549489192128</v>
+        <v>0.4138482114927155</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.02347529032727288</v>
+        <v>0.02283016209297831</v>
       </c>
     </row>
     <row r="23">
@@ -2818,52 +2818,52 @@
         <v>-2651830.37729757</v>
       </c>
       <c r="R23" t="n">
-        <v>-159538.9990451986</v>
+        <v>-153721.630097789</v>
       </c>
       <c r="S23" t="n">
-        <v>-205720.9652579391</v>
+        <v>-194621.5355201108</v>
       </c>
       <c r="T23" t="n">
-        <v>-128093.2422058283</v>
+        <v>-123839.3355607051</v>
       </c>
       <c r="U23" t="n">
-        <v>-169307.7405841616</v>
+        <v>-159834.7393600091</v>
       </c>
       <c r="V23" t="n">
-        <v>-5226.416207033062</v>
+        <v>-4997.375530420179</v>
       </c>
       <c r="W23" t="n">
-        <v>-7031.387738590402</v>
+        <v>-6615.395556197487</v>
       </c>
       <c r="X23" t="n">
-        <v>-91387.29659903797</v>
+        <v>-90605.32445099766</v>
       </c>
       <c r="Y23" t="n">
-        <v>-117210.8447177584</v>
+        <v>-117830.0601696161</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2811369.376342769</v>
+        <v>-2805552.007395359</v>
       </c>
       <c r="AA23" t="n">
-        <v>-2857551.342555509</v>
+        <v>-2846451.912817681</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.5700457389004498</v>
+        <v>0.5643373442775669</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4066954518350291</v>
+        <v>0.4128895552174439</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.02325880926452097</v>
+        <v>0.0227731005049892</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.5767595167205034</v>
+        <v>0.5622436670685266</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.399287533579787</v>
+        <v>0.414485645523227</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.02395294969970941</v>
+        <v>0.02327068740824641</v>
       </c>
     </row>
     <row r="24">
@@ -2921,52 +2921,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R24" t="n">
-        <v>-156123.5865061626</v>
+        <v>-150642.3084734135</v>
       </c>
       <c r="S24" t="n">
-        <v>-200951.8306462598</v>
+        <v>-190398.2513082125</v>
       </c>
       <c r="T24" t="n">
-        <v>-122766.6982174359</v>
+        <v>-118689.6831903057</v>
       </c>
       <c r="U24" t="n">
-        <v>-162267.3603715367</v>
+        <v>-153188.2781149551</v>
       </c>
       <c r="V24" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W24" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X24" t="n">
-        <v>-93009.4370855178</v>
+        <v>-92085.87398362493</v>
       </c>
       <c r="Y24" t="n">
-        <v>-118957.3373572592</v>
+        <v>-119676.8749690331</v>
       </c>
       <c r="Z24" t="n">
-        <v>-2896348.309713652</v>
+        <v>-2890867.031680902</v>
       </c>
       <c r="AA24" t="n">
-        <v>-2941176.553853749</v>
+        <v>-2930622.974515702</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.5550614595730232</v>
+        <v>0.5496431947641061</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.420520830586455</v>
+        <v>0.4264429106938468</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.02441770984052184</v>
+        <v>0.0239138945420473</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5624704453872855</v>
+        <v>0.5476857224467215</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4123440867727321</v>
+        <v>0.4278742246739959</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02518546783998234</v>
+        <v>0.02444005287928257</v>
       </c>
     </row>
     <row r="25">
@@ -3024,52 +3024,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R25" t="n">
-        <v>-136623.7626294145</v>
+        <v>-132088.4824073404</v>
       </c>
       <c r="S25" t="n">
-        <v>-174281.2715486164</v>
+        <v>-166121.1779854782</v>
       </c>
       <c r="T25" t="n">
-        <v>-99106.80893833385</v>
+        <v>-95815.52591777997</v>
       </c>
       <c r="U25" t="n">
-        <v>-130994.8097878035</v>
+        <v>-123665.4697989997</v>
       </c>
       <c r="V25" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W25" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X25" t="n">
-        <v>-90570.94819218389</v>
+        <v>-89574.50338909752</v>
       </c>
       <c r="Y25" t="n">
-        <v>-115657.7193760295</v>
+        <v>-116397.8965135927</v>
       </c>
       <c r="Z25" t="n">
-        <v>-2876848.485836904</v>
+        <v>-2872313.205614829</v>
       </c>
       <c r="AA25" t="n">
-        <v>-2914505.994756105</v>
+        <v>-2906345.901192967</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.5080358227027891</v>
+        <v>0.5028261487668308</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4642797671592693</v>
+        <v>0.4700741569324668</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02768441013794171</v>
+        <v>0.02709969430070233</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5158935436976224</v>
+        <v>0.5008741713476246</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4554918687354012</v>
+        <v>0.4714387941727924</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.02861458756697647</v>
+        <v>0.02768703447958309</v>
       </c>
     </row>
     <row r="26">
@@ -3127,52 +3127,52 @@
         <v>-2651830.37729757</v>
       </c>
       <c r="R26" t="n">
-        <v>-118137.791694634</v>
+        <v>-114850.1976737145</v>
       </c>
       <c r="S26" t="n">
-        <v>-151117.5627034196</v>
+        <v>-145100.00023238</v>
       </c>
       <c r="T26" t="n">
-        <v>-77976.76119279733</v>
+        <v>-75387.19552257852</v>
       </c>
       <c r="U26" t="n">
-        <v>-103066.0870806077</v>
+        <v>-97299.39758540483</v>
       </c>
       <c r="V26" t="n">
-        <v>-5226.416207033062</v>
+        <v>-4997.375530420179</v>
       </c>
       <c r="W26" t="n">
-        <v>-7031.387738590402</v>
+        <v>-6615.395556197487</v>
       </c>
       <c r="X26" t="n">
-        <v>-86934.92239554616</v>
+        <v>-85934.841757177</v>
       </c>
       <c r="Y26" t="n">
-        <v>-111301.0763857183</v>
+        <v>-111775.8834709215</v>
       </c>
       <c r="Z26" t="n">
-        <v>-2769968.168992204</v>
+        <v>-2766680.574971284</v>
       </c>
       <c r="AA26" t="n">
-        <v>-2802947.940000989</v>
+        <v>-2796930.37752995</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.4583145179508836</v>
+        <v>0.4532675665986129</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5109668116671219</v>
+        <v>0.5166855768980887</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03071867038199452</v>
+        <v>0.03004685650329827</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4655228614626951</v>
+        <v>0.4511061818411268</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.502718178506521</v>
+        <v>0.5182230647443357</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03175896003078389</v>
+        <v>0.03067075341453759</v>
       </c>
     </row>
     <row r="27">
@@ -3230,52 +3230,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R27" t="n">
-        <v>-125663.0360709857</v>
+        <v>-121989.7360233083</v>
       </c>
       <c r="S27" t="n">
-        <v>-159978.9580795815</v>
+        <v>-153375.1918899979</v>
       </c>
       <c r="T27" t="n">
-        <v>-82726.88559126419</v>
+        <v>-79979.57088295541</v>
       </c>
       <c r="U27" t="n">
-        <v>-109344.5824606044</v>
+        <v>-103226.6025033392</v>
       </c>
       <c r="V27" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W27" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X27" t="n">
-        <v>-91965.7695767407</v>
+        <v>-90096.77904956225</v>
       </c>
       <c r="Y27" t="n">
-        <v>-117594.7395266114</v>
+        <v>-117782.6136806362</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2865887.759278475</v>
+        <v>-2862214.459230797</v>
       </c>
       <c r="AA27" t="n">
-        <v>-2900203.681287071</v>
+        <v>-2893599.915097487</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.4593557470899913</v>
+        <v>0.4563994056272286</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.5106562937634717</v>
+        <v>0.5141327460649221</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02998795914653692</v>
+        <v>0.02946784830784929</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4668753474975161</v>
+        <v>0.4530560069571226</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5021015549640715</v>
+        <v>0.5169415572056267</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.0310230975384124</v>
+        <v>0.03000243583725071</v>
       </c>
     </row>
     <row r="28">
@@ -3333,52 +3333,52 @@
         <v>-2651830.37729757</v>
       </c>
       <c r="R28" t="n">
-        <v>-141865.1092076128</v>
+        <v>-136489.6817086277</v>
       </c>
       <c r="S28" t="n">
-        <v>-181630.39647501</v>
+        <v>-172605.6674327788</v>
       </c>
       <c r="T28" t="n">
-        <v>-104395.9923977508</v>
+        <v>-100929.0584819753</v>
       </c>
       <c r="U28" t="n">
-        <v>-137985.8085760923</v>
+        <v>-130265.312578408</v>
       </c>
       <c r="V28" t="n">
-        <v>-5226.416207033062</v>
+        <v>-4997.375530420179</v>
       </c>
       <c r="W28" t="n">
-        <v>-7031.387738590402</v>
+        <v>-6615.395556197487</v>
       </c>
       <c r="X28" t="n">
-        <v>-92828.8664102528</v>
+        <v>-91104.2108651072</v>
       </c>
       <c r="Y28" t="n">
-        <v>-119033.915488946</v>
+        <v>-118998.2904001027</v>
       </c>
       <c r="Z28" t="n">
-        <v>-2793695.486505183</v>
+        <v>-2788320.059006198</v>
       </c>
       <c r="AA28" t="n">
-        <v>-2833460.77377258</v>
+        <v>-2824436.044730349</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.5156598415593924</v>
+        <v>0.5122505615546484</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.4585244839942753</v>
+        <v>0.4623859954462833</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02581567444633224</v>
+        <v>0.02536344299906815</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5225723445493783</v>
+        <v>0.5090895045094465</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.4507987664807485</v>
+        <v>0.4650568865813403</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.02662888896987319</v>
+        <v>0.02585360890921322</v>
       </c>
     </row>
     <row r="29">
@@ -3436,52 +3436,52 @@
         <v>-2740224.723207489</v>
       </c>
       <c r="R29" t="n">
-        <v>-140727.3984471318</v>
+        <v>-137227.3574029405</v>
       </c>
       <c r="S29" t="n">
-        <v>-181080.1421427437</v>
+        <v>-172463.5388648115</v>
       </c>
       <c r="T29" t="n">
-        <v>-101754.0692772533</v>
+        <v>-98374.87218603361</v>
       </c>
       <c r="U29" t="n">
-        <v>-134493.8364265418</v>
+        <v>-126968.7210791056</v>
       </c>
       <c r="V29" t="n">
-        <v>-5400.630080600808</v>
+        <v>-5163.954714767495</v>
       </c>
       <c r="W29" t="n">
-        <v>-7265.76732987675</v>
+        <v>-6835.90874140407</v>
       </c>
       <c r="X29" t="n">
-        <v>-95445.88971423659</v>
+        <v>-93784.39324371422</v>
       </c>
       <c r="Y29" t="n">
-        <v>-122331.7084078602</v>
+        <v>-122336.8283513487</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2880952.121654621</v>
+        <v>-2877452.08061043</v>
       </c>
       <c r="AA29" t="n">
-        <v>-2921304.865350233</v>
+        <v>-2912688.262072301</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.5022397503545584</v>
+        <v>0.4985468619151155</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.471103712735378</v>
+        <v>0.4752831074570369</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.02665653691006357</v>
+        <v>0.02617003062784767</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.5092702040227645</v>
+        <v>0.4956976585723808</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.4632174659792042</v>
+        <v>0.4776143199328033</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.02751232999803136</v>
+        <v>0.026688021494816</v>
       </c>
     </row>
     <row r="30">
@@ -3539,52 +3539,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R30" t="n">
-        <v>-84778.06850604535</v>
+        <v>-82416.81844653877</v>
       </c>
       <c r="S30" t="n">
-        <v>-107775.8812581551</v>
+        <v>-104736.9531723292</v>
       </c>
       <c r="T30" t="n">
-        <v>-64266.47539554364</v>
+        <v>-63232.21901386473</v>
       </c>
       <c r="U30" t="n">
-        <v>-85253.55558068701</v>
+        <v>-81702.47491789794</v>
       </c>
       <c r="V30" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W30" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X30" t="n">
-        <v>-52695.14867557693</v>
+        <v>-51198.13198297208</v>
       </c>
       <c r="Y30" t="n">
-        <v>-66877.08670172787</v>
+        <v>-66512.32790879796</v>
       </c>
       <c r="Z30" t="n">
-        <v>-3173483.497364048</v>
+        <v>-3171122.247304542</v>
       </c>
       <c r="AA30" t="n">
-        <v>-3196481.310116158</v>
+        <v>-3193442.382030332</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.5287337864976279</v>
+        <v>0.5309189424662318</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.4335340520514253</v>
+        <v>0.4298767070421168</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.03773216145094679</v>
+        <v>0.03920435049165122</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.53919715883768</v>
+        <v>0.5290776891620932</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.4229728003166325</v>
+        <v>0.4307114170793543</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.03783004084568744</v>
+        <v>0.04021089375855241</v>
       </c>
     </row>
     <row r="31">
@@ -3642,52 +3642,52 @@
         <v>-2889434.110867164</v>
       </c>
       <c r="R31" t="n">
-        <v>-65668.83623777081</v>
+        <v>-64301.17601332843</v>
       </c>
       <c r="S31" t="n">
-        <v>-83368.56786865566</v>
+        <v>-81457.69572480446</v>
       </c>
       <c r="T31" t="n">
-        <v>-43690.44207633984</v>
+        <v>-42987.32091934924</v>
       </c>
       <c r="U31" t="n">
-        <v>-57958.14239033738</v>
+        <v>-55544.00215546219</v>
       </c>
       <c r="V31" t="n">
-        <v>-4290.376521781912</v>
+        <v>-4367.981289864869</v>
       </c>
       <c r="W31" t="n">
-        <v>-5595.48865908302</v>
+        <v>-5808.925337916347</v>
       </c>
       <c r="X31" t="n">
-        <v>-47756.96338970204</v>
+        <v>-46462.74336877802</v>
       </c>
       <c r="Y31" t="n">
-        <v>-60597.16761279778</v>
+        <v>-60267.50812607391</v>
       </c>
       <c r="Z31" t="n">
-        <v>-2955102.947104935</v>
+        <v>-2953735.286880493</v>
       </c>
       <c r="AA31" t="n">
-        <v>-2972802.67873582</v>
+        <v>-2970891.806591969</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.4563552776049953</v>
+        <v>0.4581988534776429</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.498830894116347</v>
+        <v>0.4952431388069468</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04481382827865778</v>
+        <v>0.04655800771541026</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.4668366455541403</v>
+        <v>0.4566995823732954</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.4880932564732573</v>
+        <v>0.4955376768641872</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0450700979726025</v>
+        <v>0.04776274076251742</v>
       </c>
     </row>
     <row r="32">
@@ -3745,52 +3745,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R32" t="n">
-        <v>-89333.96131535592</v>
+        <v>-87127.6533367388</v>
       </c>
       <c r="S32" t="n">
-        <v>-113993.297582964</v>
+        <v>-110693.5154314701</v>
       </c>
       <c r="T32" t="n">
-        <v>-69368.54672465556</v>
+        <v>-68252.18143939301</v>
       </c>
       <c r="U32" t="n">
-        <v>-92021.77678709278</v>
+        <v>-88188.77827015864</v>
       </c>
       <c r="V32" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W32" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X32" t="n">
-        <v>-53769.88768742914</v>
+        <v>-52269.24225348595</v>
       </c>
       <c r="Y32" t="n">
-        <v>-68308.01020931349</v>
+        <v>-67936.30161011525</v>
       </c>
       <c r="Z32" t="n">
-        <v>-3178039.390173359</v>
+        <v>-3175833.082194742</v>
       </c>
       <c r="AA32" t="n">
-        <v>-3202698.726440967</v>
+        <v>-3199398.944289473</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.5431098862173046</v>
+        <v>0.5451859553907016</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4209826926280023</v>
+        <v>0.4175171573207404</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03590742115469329</v>
+        <v>0.03729688728855807</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.5533108569832073</v>
+        <v>0.5432530526019211</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.4107241240861829</v>
+        <v>0.4184954589020357</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.03596501893060989</v>
+        <v>0.03825148849604299</v>
       </c>
     </row>
     <row r="33">
@@ -3848,52 +3848,52 @@
         <v>-2989069.769862582</v>
       </c>
       <c r="R33" t="n">
-        <v>-97880.06216377577</v>
+        <v>-95755.55725613714</v>
       </c>
       <c r="S33" t="n">
-        <v>-126479.6461452728</v>
+        <v>-122431.3160991117</v>
       </c>
       <c r="T33" t="n">
-        <v>-81563.51001936202</v>
+        <v>-80250.88815500044</v>
       </c>
       <c r="U33" t="n">
-        <v>-108199.1690378869</v>
+        <v>-103692.3308857039</v>
       </c>
       <c r="V33" t="n">
-        <v>-4438.320539774383</v>
+        <v>-4518.601334342985</v>
       </c>
       <c r="W33" t="n">
-        <v>-5788.436543878986</v>
+        <v>-6009.233108189324</v>
       </c>
       <c r="X33" t="n">
-        <v>-52530.1304260085</v>
+        <v>-51134.17189378566</v>
       </c>
       <c r="Y33" t="n">
-        <v>-66703.80274329866</v>
+        <v>-66341.03569201348</v>
       </c>
       <c r="Z33" t="n">
-        <v>-3086949.832026358</v>
+        <v>-3084825.327118719</v>
       </c>
       <c r="AA33" t="n">
-        <v>-3115549.416007855</v>
+        <v>-3111501.085961694</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.5887703417993791</v>
+        <v>0.5904983525702324</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.3791914158469281</v>
+        <v>0.3762530852618617</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03203824235369277</v>
+        <v>0.03324856216790579</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.5988063851007026</v>
+        <v>0.589018402765641</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.3691586853056027</v>
+        <v>0.3768464894882171</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.03203492959369472</v>
+        <v>0.03413510774614173</v>
       </c>
     </row>
     <row r="34">
@@ -3951,52 +3951,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R34" t="n">
-        <v>-96086.83532006976</v>
+        <v>-93995.51460047737</v>
       </c>
       <c r="S34" t="n">
-        <v>-124174.7100594716</v>
+        <v>-120120.0295566688</v>
       </c>
       <c r="T34" t="n">
-        <v>-80161.38992085353</v>
+        <v>-78871.33272416389</v>
       </c>
       <c r="U34" t="n">
-        <v>-106339.167800643</v>
+        <v>-101909.8045922481</v>
       </c>
       <c r="V34" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W34" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X34" t="n">
-        <v>-51454.93609388471</v>
+        <v>-50318.04425050185</v>
       </c>
       <c r="Y34" t="n">
-        <v>-65196.39314599107</v>
+        <v>-64798.79958436648</v>
       </c>
       <c r="Z34" t="n">
-        <v>-3184792.264178073</v>
+        <v>-3182700.94345848</v>
       </c>
       <c r="AA34" t="n">
-        <v>-3212880.138917475</v>
+        <v>-3208825.458414672</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.5885452661649705</v>
+        <v>0.5892137949620883</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.3777823599213669</v>
+        <v>0.3759044608970474</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.03367237391366254</v>
+        <v>0.03488174414086451</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.5990367149221676</v>
+        <v>0.5893528672759494</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3672685613655184</v>
+        <v>0.3747368418954943</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.03369472371231387</v>
+        <v>0.03591029082855634</v>
       </c>
     </row>
     <row r="35">
@@ -4054,52 +4054,52 @@
         <v>-2989069.769862582</v>
       </c>
       <c r="R35" t="n">
-        <v>-90678.99879651524</v>
+        <v>-89040.3533405897</v>
       </c>
       <c r="S35" t="n">
-        <v>-117422.6533466477</v>
+        <v>-113522.3791387226</v>
       </c>
       <c r="T35" t="n">
-        <v>-75961.35973863814</v>
+        <v>-74738.89467287638</v>
       </c>
       <c r="U35" t="n">
-        <v>-100767.5613856926</v>
+        <v>-96570.27323464915</v>
       </c>
       <c r="V35" t="n">
-        <v>-4438.320539774383</v>
+        <v>-4518.601334342985</v>
       </c>
       <c r="W35" t="n">
-        <v>-5788.436543878986</v>
+        <v>-6009.233108189324</v>
       </c>
       <c r="X35" t="n">
-        <v>-48642.19494878705</v>
+        <v>-47162.6934580692</v>
       </c>
       <c r="Y35" t="n">
-        <v>-61219.20551477723</v>
+        <v>-60794.54291178881</v>
       </c>
       <c r="Z35" t="n">
-        <v>-3079748.768659097</v>
+        <v>-3078110.123203172</v>
       </c>
       <c r="AA35" t="n">
-        <v>-3106492.423209229</v>
+        <v>-3102592.149001305</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.5886566636209803</v>
+        <v>0.5911942941154791</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.3769489157154948</v>
+        <v>0.3730629866760226</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.03439442066352481</v>
+        <v>0.03574271920849847</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.600610574846463</v>
+        <v>0.5910992209303643</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3648882806158163</v>
+        <v>0.3721187250310312</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.03450114453772077</v>
+        <v>0.03678205403860443</v>
       </c>
     </row>
     <row r="36">
@@ -4157,52 +4157,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R36" t="n">
-        <v>-88602.3075337909</v>
+        <v>-86668.68880162708</v>
       </c>
       <c r="S36" t="n">
-        <v>-114246.2707100207</v>
+        <v>-110557.1215848565</v>
       </c>
       <c r="T36" t="n">
-        <v>-72802.63319617177</v>
+        <v>-71631.00230272798</v>
       </c>
       <c r="U36" t="n">
-        <v>-96577.31029140296</v>
+        <v>-92554.55937264037</v>
       </c>
       <c r="V36" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W36" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X36" t="n">
-        <v>-49182.98801303355</v>
+        <v>-47693.70249028003</v>
       </c>
       <c r="Y36" t="n">
-        <v>-61929.43806317863</v>
+        <v>-61486.79475324704</v>
       </c>
       <c r="Z36" t="n">
-        <v>-3177307.736391794</v>
+        <v>-3175374.11765963</v>
       </c>
       <c r="AA36" t="n">
-        <v>-3202951.699568024</v>
+        <v>-3199262.55044286</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.5751880265907278</v>
+        <v>0.5776976704767193</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.3885775084648965</v>
+        <v>0.3846454738773796</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.03623446494437571</v>
+        <v>0.037656855645901</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.5871384680295532</v>
+        <v>0.5775603273237766</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.3764979090909986</v>
+        <v>0.3836908040456067</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03636362287944827</v>
+        <v>0.03874886863061672</v>
       </c>
     </row>
     <row r="37">
@@ -4260,52 +4260,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R37" t="n">
-        <v>-76695.93384311748</v>
+        <v>-74733.78969482178</v>
       </c>
       <c r="S37" t="n">
-        <v>-97952.35535605573</v>
+        <v>-95127.85570052864</v>
       </c>
       <c r="T37" t="n">
-        <v>-58771.93704111549</v>
+        <v>-57826.10563252671</v>
       </c>
       <c r="U37" t="n">
-        <v>-77964.70197378864</v>
+        <v>-74717.22515392506</v>
       </c>
       <c r="V37" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W37" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X37" t="n">
-        <v>-47676.37859138483</v>
+        <v>-46322.66881346459</v>
       </c>
       <c r="Y37" t="n">
-        <v>-60087.19563523707</v>
+        <v>-59652.74000418552</v>
       </c>
       <c r="Z37" t="n">
-        <v>-3165401.362701121</v>
+        <v>-3163439.218552825</v>
       </c>
       <c r="AA37" t="n">
-        <v>-3186657.784214059</v>
+        <v>-3183833.284558532</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.5293120119912622</v>
+        <v>0.5314020460882387</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.4293831571181455</v>
+        <v>0.4256894134315808</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.04130483089059216</v>
+        <v>0.04290854048018049</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.541296434204571</v>
+        <v>0.5314944351453816</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.4171757720518323</v>
+        <v>0.4243345398344649</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.04152779374359689</v>
+        <v>0.04417102502015365</v>
       </c>
     </row>
     <row r="38">
@@ -4363,52 +4363,52 @@
         <v>-2989069.769862582</v>
       </c>
       <c r="R38" t="n">
-        <v>-66662.5203837812</v>
+        <v>-64699.86175733303</v>
       </c>
       <c r="S38" t="n">
-        <v>-84186.67004258973</v>
+        <v>-82155.17868284836</v>
       </c>
       <c r="T38" t="n">
-        <v>-46241.47774089546</v>
+        <v>-45497.30213211302</v>
       </c>
       <c r="U38" t="n">
-        <v>-61342.25299353994</v>
+        <v>-58787.15383159222</v>
       </c>
       <c r="V38" t="n">
-        <v>-4438.320539774383</v>
+        <v>-4518.601334342985</v>
       </c>
       <c r="W38" t="n">
-        <v>-5788.436543878986</v>
+        <v>-6009.233108189324</v>
       </c>
       <c r="X38" t="n">
-        <v>-46114.3397081189</v>
+        <v>-44802.39188013605</v>
       </c>
       <c r="Y38" t="n">
-        <v>-58373.59468950734</v>
+        <v>-57988.69029401589</v>
       </c>
       <c r="Z38" t="n">
-        <v>-3055732.290246363</v>
+        <v>-3053769.631619915</v>
       </c>
       <c r="AA38" t="n">
-        <v>-3073256.439905172</v>
+        <v>-3071224.94854543</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.4777301466980513</v>
+        <v>0.4798367442254201</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.4764166577263194</v>
+        <v>0.4725078816948625</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.04585319557562934</v>
+        <v>0.04765537407971755</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4887662072366076</v>
+        <v>0.4787809329602364</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.4651123668731589</v>
+        <v>0.4722779966461113</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.04612142589023355</v>
+        <v>0.04894107039365238</v>
       </c>
     </row>
     <row r="39">
@@ -4466,52 +4466,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R39" t="n">
-        <v>-70903.94102408546</v>
+        <v>-68843.6048181972</v>
       </c>
       <c r="S39" t="n">
-        <v>-89598.82184417429</v>
+        <v>-87381.59284785351</v>
       </c>
       <c r="T39" t="n">
-        <v>-49058.37816453623</v>
+        <v>-48268.86947623171</v>
       </c>
       <c r="U39" t="n">
-        <v>-65079.05006159223</v>
+        <v>-62368.30146404332</v>
       </c>
       <c r="V39" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W39" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X39" t="n">
-        <v>-49155.8612530796</v>
+        <v>-47855.91397801901</v>
       </c>
       <c r="Y39" t="n">
-        <v>-62307.32114934881</v>
+        <v>-61940.89469884474</v>
       </c>
       <c r="Z39" t="n">
-        <v>-3159609.369882089</v>
+        <v>-3157549.033676201</v>
       </c>
       <c r="AA39" t="n">
-        <v>-3178304.250702177</v>
+        <v>-3176087.021705857</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.4772192379162272</v>
+        <v>0.4788863142819986</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.4781675123387604</v>
+        <v>0.4747892898717015</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.04461324974501232</v>
+        <v>0.04632439584629981</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4879668983667064</v>
+        <v>0.4778494098076054</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.4671842969129252</v>
+        <v>0.474574732356021</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.04484880472036842</v>
+        <v>0.0475758578363735</v>
       </c>
     </row>
     <row r="40">
@@ -4569,52 +4569,52 @@
         <v>-2989069.769862582</v>
       </c>
       <c r="R40" t="n">
-        <v>-81203.75846946613</v>
+        <v>-78899.60759278668</v>
       </c>
       <c r="S40" t="n">
-        <v>-103230.2747930372</v>
+        <v>-100284.8502704451</v>
       </c>
       <c r="T40" t="n">
-        <v>-61908.50818699083</v>
+        <v>-60912.19915839499</v>
       </c>
       <c r="U40" t="n">
-        <v>-82125.56252934023</v>
+        <v>-78704.77268623978</v>
       </c>
       <c r="V40" t="n">
-        <v>-4438.320539774383</v>
+        <v>-4518.601334342985</v>
       </c>
       <c r="W40" t="n">
-        <v>-5788.436543878986</v>
+        <v>-6009.233108189324</v>
       </c>
       <c r="X40" t="n">
-        <v>-50081.83455280834</v>
+        <v>-48552.55795419131</v>
       </c>
       <c r="Y40" t="n">
-        <v>-63432.71077665011</v>
+        <v>-63082.43985385601</v>
       </c>
       <c r="Z40" t="n">
-        <v>-3070273.528332048</v>
+        <v>-3067969.377455369</v>
       </c>
       <c r="AA40" t="n">
-        <v>-3092300.044655619</v>
+        <v>-3089354.620133027</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.5317290986870942</v>
+        <v>0.5343955467565534</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.4301503868729444</v>
+        <v>0.425961812458767</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.03812051443996136</v>
+        <v>0.03964264078467953</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.5426319647834165</v>
+        <v>0.5325214171492019</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.4191218351530281</v>
+        <v>0.4268197355975317</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0382462000635555</v>
+        <v>0.04065884725326646</v>
       </c>
     </row>
     <row r="41">
@@ -4672,52 +4672,52 @@
         <v>-3088705.428858003</v>
       </c>
       <c r="R41" t="n">
-        <v>-80748.88635470255</v>
+        <v>-78569.81067022801</v>
       </c>
       <c r="S41" t="n">
-        <v>-102654.8534772083</v>
+        <v>-99794.4297201474</v>
       </c>
       <c r="T41" t="n">
-        <v>-60341.80514238076</v>
+        <v>-59370.70945576623</v>
       </c>
       <c r="U41" t="n">
-        <v>-80047.23157575965</v>
+        <v>-76713.0108007745</v>
       </c>
       <c r="V41" t="n">
-        <v>-4586.264557766881</v>
+        <v>-4669.221378821074</v>
       </c>
       <c r="W41" t="n">
-        <v>-5981.384428674952</v>
+        <v>-6209.5408784623</v>
       </c>
       <c r="X41" t="n">
-        <v>-51409.08759000062</v>
+        <v>-49840.33362502079</v>
       </c>
       <c r="Y41" t="n">
-        <v>-65123.16870846189</v>
+        <v>-64759.36973189132</v>
       </c>
       <c r="Z41" t="n">
-        <v>-3169454.315212706</v>
+        <v>-3167275.239528231</v>
       </c>
       <c r="AA41" t="n">
-        <v>-3191360.282335212</v>
+        <v>-3188499.858578151</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.518680416024663</v>
+        <v>0.5213432699466928</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.4418974022356835</v>
+        <v>0.4376555837969496</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.03942218173965351</v>
+        <v>0.0410011462563576</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.5295817824963458</v>
+        <v>0.5194475401441657</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.4308461777818855</v>
+        <v>0.4385057366067799</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.03957203972176857</v>
+        <v>0.04204672324905435</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/downside_risk_-_month.xlsx
+++ b/public/data/downside_risk_-_month.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,7 +605,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -616,91 +616,91 @@
         <v>720</v>
       </c>
       <c r="E2" t="n">
-        <v>25.41633749944444</v>
+        <v>-10.14242916711111</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="n">
-        <v>18.41633749944444</v>
+        <v>5.857570832888889</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-31.08366250055556</v>
+        <v>-32.64242916711111</v>
       </c>
       <c r="K2" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>-12677810.61418092</v>
+        <v>-8378510.365795152</v>
       </c>
       <c r="M2" t="n">
-        <v>4335656.957893601</v>
+        <v>-2684894.11209216</v>
       </c>
       <c r="N2" t="n">
-        <v>4867736.9578936</v>
+        <v>-2103134.112092161</v>
       </c>
       <c r="O2" t="n">
-        <v>115920</v>
+        <v>-264960</v>
       </c>
       <c r="P2" t="n">
-        <v>-648000</v>
+        <v>-316800</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8342153.656287315</v>
+        <v>-11063404.47788731</v>
       </c>
       <c r="R2" t="n">
-        <v>-1843104.884397343</v>
+        <v>-745102.1608430858</v>
       </c>
       <c r="S2" t="n">
-        <v>-2480092.735947589</v>
+        <v>-1017595.196181283</v>
       </c>
       <c r="T2" t="n">
-        <v>-1702752.660074351</v>
+        <v>-658143.2782167495</v>
       </c>
       <c r="U2" t="n">
-        <v>-2368033.139693492</v>
+        <v>-918697.3979479411</v>
       </c>
       <c r="V2" t="n">
-        <v>-118859.048876056</v>
+        <v>-235478.513946175</v>
       </c>
       <c r="W2" t="n">
-        <v>-167929.272257223</v>
+        <v>-325038.5163859241</v>
       </c>
       <c r="X2" t="n">
-        <v>-611712.1570731826</v>
+        <v>-261989.1044915798</v>
       </c>
       <c r="Y2" t="n">
-        <v>-836866.2400280446</v>
+        <v>-365953.2844260329</v>
       </c>
       <c r="Z2" t="n">
-        <v>-10185258.54068466</v>
+        <v>-11808506.6387304</v>
       </c>
       <c r="AA2" t="n">
-        <v>-10822246.3922349</v>
+        <v>-12080999.67406859</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6997640897086587</v>
+        <v>0.569519792624036</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2513895357763496</v>
+        <v>0.2267104829575757</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0488463745149918</v>
+        <v>0.2037697244183884</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7020911478275728</v>
+        <v>0.5707296779127946</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2481199984876417</v>
+        <v>0.2273440641261448</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04978885368478556</v>
+        <v>0.2019262579610606</v>
       </c>
     </row>
     <row r="3">
@@ -708,7 +708,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -719,99 +719,99 @@
         <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>1.915432796301079</v>
+        <v>-38.43702822589247</v>
       </c>
       <c r="F3" t="n">
-        <v>4.050000000000001</v>
+        <v>-16</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.134567203698921</v>
+        <v>-22.43702822589247</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.5</v>
+        <v>-28.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-30.63456720369892</v>
+        <v>-31.93702822589247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.05</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>-9341285.450362897</v>
+        <v>-1836944.814424032</v>
       </c>
       <c r="M3" t="n">
-        <v>-168778.0958781447</v>
+        <v>-7064107.674014464</v>
       </c>
       <c r="N3" t="n">
-        <v>387622.3041218542</v>
+        <v>-6462955.674014464</v>
       </c>
       <c r="O3" t="n">
-        <v>69303.59999999998</v>
+        <v>-273792</v>
       </c>
       <c r="P3" t="n">
-        <v>-625704</v>
+        <v>-327360</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9510063.546241041</v>
+        <v>-8901052.488438496</v>
       </c>
       <c r="R3" t="n">
-        <v>-335398.1979301059</v>
+        <v>-1785709.561390199</v>
       </c>
       <c r="S3" t="n">
-        <v>-441608.7585389673</v>
+        <v>-2433723.823919488</v>
       </c>
       <c r="T3" t="n">
-        <v>-116283.7306388427</v>
+        <v>-1785936.722096415</v>
       </c>
       <c r="U3" t="n">
-        <v>-164136.7638778897</v>
+        <v>-2426798.756653656</v>
       </c>
       <c r="V3" t="n">
-        <v>-4770.383632613461</v>
+        <v>-17065.93525291342</v>
       </c>
       <c r="W3" t="n">
-        <v>-6628.976641567882</v>
+        <v>-23595.56939481076</v>
       </c>
       <c r="X3" t="n">
-        <v>-312151.7592646024</v>
+        <v>-143000.3276511691</v>
       </c>
       <c r="Y3" t="n">
-        <v>-418891.7405218387</v>
+        <v>-193426.6512892288</v>
       </c>
       <c r="Z3" t="n">
-        <v>-9845461.744171146</v>
+        <v>-10686762.0498287</v>
       </c>
       <c r="AA3" t="n">
-        <v>-9951672.304780008</v>
+        <v>-11334776.31235798</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2684260249974743</v>
+        <v>0.9177461370111712</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7205621583951584</v>
+        <v>0.07348412554009139</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01101181660736737</v>
+        <v>0.008769737448737292</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2783595038733927</v>
+        <v>0.9179134205589901</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7103984160128071</v>
+        <v>0.0731617809780781</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.01124208011380021</v>
+        <v>0.00892479846293197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -819,102 +819,102 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.232429167111111</v>
+        <v>-30.45</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9100000000000001</v>
+        <v>-15</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.14242916711111</v>
+        <v>-15.45</v>
       </c>
       <c r="H4" t="n">
-        <v>-15.5</v>
+        <v>-55.1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-32.64242916711111</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="K4" t="n">
-        <v>38.91</v>
+        <v>15.35</v>
       </c>
       <c r="L4" t="n">
-        <v>-7353661.083225883</v>
+        <v>2346403.116714487</v>
       </c>
       <c r="M4" t="n">
-        <v>-2619207.28809984</v>
+        <v>-6815784</v>
       </c>
       <c r="N4" t="n">
-        <v>-2073972.88809984</v>
+        <v>-5595735.600000001</v>
       </c>
       <c r="O4" t="n">
-        <v>15069.59999999998</v>
+        <v>-301320</v>
       </c>
       <c r="P4" t="n">
-        <v>-560304</v>
+        <v>-918728.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9972868.371325726</v>
+        <v>-4469380.883285512</v>
       </c>
       <c r="R4" t="n">
-        <v>-628007.0822974297</v>
+        <v>-1655833.62940223</v>
       </c>
       <c r="S4" t="n">
-        <v>-821996.9650368277</v>
+        <v>-2171104.010004075</v>
       </c>
       <c r="T4" t="n">
-        <v>-571211.3732413326</v>
+        <v>-1541884.836675681</v>
       </c>
       <c r="U4" t="n">
-        <v>-754590.4315592205</v>
+        <v>-2021559.32657012</v>
       </c>
       <c r="V4" t="n">
-        <v>-829.0240977173431</v>
+        <v>-14940.01807997939</v>
       </c>
       <c r="W4" t="n">
-        <v>-1154.545933590443</v>
+        <v>-20308.74123466116</v>
       </c>
       <c r="X4" t="n">
-        <v>-245281.1976137368</v>
+        <v>-659446.4903130492</v>
       </c>
       <c r="Y4" t="n">
-        <v>-322247.2980111113</v>
+        <v>-894410.3581621508</v>
       </c>
       <c r="Z4" t="n">
-        <v>-10600875.45362316</v>
+        <v>-6125214.512687743</v>
       </c>
       <c r="AA4" t="n">
-        <v>-10794865.33636255</v>
+        <v>-6640484.893289587</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6988820273057009</v>
+        <v>0.6957112179004774</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3001036545815307</v>
+        <v>0.2975477221145972</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.001014318112768368</v>
+        <v>0.006741059984925362</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6999961397742641</v>
+        <v>0.6884767155227828</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2989328451917453</v>
+        <v>0.3046067941828837</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.001071015033990605</v>
+        <v>0.006916490294333511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -922,94 +922,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="E5" t="n">
-        <v>-25.00186822589247</v>
+        <v>-32.23999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5648400000000002</v>
+        <v>-15</v>
       </c>
       <c r="G5" t="n">
-        <v>-24.43702822589247</v>
+        <v>-17.24</v>
       </c>
       <c r="H5" t="n">
-        <v>-30.5</v>
+        <v>-55.48</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-31.93702822589247</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>37.43516</v>
+        <v>14.7</v>
       </c>
       <c r="L5" t="n">
-        <v>-3877333.793863412</v>
+        <v>2370968.96735502</v>
       </c>
       <c r="M5" t="n">
-        <v>-5738073.145677392</v>
+        <v>-6407829.12</v>
       </c>
       <c r="N5" t="n">
-        <v>-5171372.422797393</v>
+        <v>-5351324.160000002</v>
       </c>
       <c r="O5" t="n">
-        <v>-9665.542079999985</v>
+        <v>-272160</v>
       </c>
       <c r="P5" t="n">
-        <v>-557035.1808</v>
+        <v>-784344.9600000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9615406.939540802</v>
+        <v>-4036860.152644979</v>
       </c>
       <c r="R5" t="n">
-        <v>-1201584.424876513</v>
+        <v>-1183226.405912648</v>
       </c>
       <c r="S5" t="n">
-        <v>-1592815.928191561</v>
+        <v>-1550278.660017475</v>
       </c>
       <c r="T5" t="n">
-        <v>-1175765.158792799</v>
+        <v>-1148498.073059848</v>
       </c>
       <c r="U5" t="n">
-        <v>-1571884.057460841</v>
+        <v>-1486229.042629097</v>
       </c>
       <c r="V5" t="n">
-        <v>-645.3801887116502</v>
+        <v>-22211.00665847122</v>
       </c>
       <c r="W5" t="n">
-        <v>-875.4845459994906</v>
+        <v>-31206.35598684497</v>
       </c>
       <c r="X5" t="n">
-        <v>-199405.438260161</v>
+        <v>-417057.9831891462</v>
       </c>
       <c r="Y5" t="n">
-        <v>-260357.6378956214</v>
+        <v>-557176.5309275724</v>
       </c>
       <c r="Z5" t="n">
-        <v>-10816991.36441731</v>
+        <v>-5220086.558557627</v>
       </c>
       <c r="AA5" t="n">
-        <v>-11208222.86773236</v>
+        <v>-5587138.812662453</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8545947846528515</v>
+        <v>0.7233416663504514</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.144936126312432</v>
+        <v>0.2626695016745364</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0004690890347163666</v>
+        <v>0.01398883197501224</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8574924040286825</v>
+        <v>0.7163889407288418</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.142030002637079</v>
+        <v>0.2685690383792261</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0004775933342384987</v>
+        <v>0.01504202089193203</v>
       </c>
     </row>
     <row r="6">
@@ -1017,7 +1017,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1028,91 +1028,91 @@
         <v>744</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.45</v>
+        <v>-29.93</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.45</v>
+        <v>-14.93</v>
       </c>
       <c r="H6" t="n">
-        <v>-63.1</v>
+        <v>-55.13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.299999999999997</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>32.35</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>1318935.414203487</v>
+        <v>2274316.956714487</v>
       </c>
       <c r="M6" t="n">
-        <v>-5635800</v>
+        <v>-6743697.84</v>
       </c>
       <c r="N6" t="n">
-        <v>-3989700</v>
+        <v>-5500176.240000001</v>
       </c>
       <c r="O6" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P6" t="n">
-        <v>-1686276</v>
+        <v>-942201.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
       <c r="R6" t="n">
-        <v>-1009214.206479906</v>
+        <v>-854501.3617562881</v>
       </c>
       <c r="S6" t="n">
-        <v>-1320903.882356604</v>
+        <v>-1107883.412414449</v>
       </c>
       <c r="T6" t="n">
-        <v>-592800.2319365521</v>
+        <v>-712939.1088085932</v>
       </c>
       <c r="U6" t="n">
-        <v>-790022.1265681159</v>
+        <v>-945834.5872449431</v>
       </c>
       <c r="V6" t="n">
-        <v>-2945.615932825116</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W6" t="n">
-        <v>-3980.607453066492</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X6" t="n">
-        <v>-798715.4270784525</v>
+        <v>-446574.6917379408</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1068752.548141996</v>
+        <v>-590484.0341939034</v>
       </c>
       <c r="Z6" t="n">
-        <v>-5326078.792276422</v>
+        <v>-5323882.245041801</v>
       </c>
       <c r="AA6" t="n">
-        <v>-5637768.468153119</v>
+        <v>-5577264.295699961</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4251105732274497</v>
+        <v>0.6037253891187138</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5727770583721191</v>
+        <v>0.3781648056740864</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.002112368400431427</v>
+        <v>0.01810980520719978</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4241148228825206</v>
+        <v>0.6041347259315387</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5737482311154024</v>
+        <v>0.3771609909125687</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.00213694600207704</v>
+        <v>0.01870428315589273</v>
       </c>
     </row>
     <row r="7">
@@ -1120,7 +1120,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1128,94 +1128,94 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.24</v>
+        <v>-28.41</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.24</v>
+        <v>-13.41</v>
       </c>
       <c r="H7" t="n">
-        <v>-63.48</v>
+        <v>-54.21</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.539999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>31.7</v>
+        <v>16.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1447933.303151536</v>
+        <v>1949715.093594665</v>
       </c>
       <c r="M7" t="n">
-        <v>-5347036.8</v>
+        <v>-6274922.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-3904320</v>
+        <v>-5052434.400000001</v>
       </c>
       <c r="O7" t="n">
-        <v>36288</v>
+        <v>-291600</v>
       </c>
       <c r="P7" t="n">
-        <v>-1479004.8</v>
+        <v>-930888</v>
       </c>
       <c r="Q7" t="n">
-        <v>-3899103.496848463</v>
+        <v>-4325207.306405335</v>
       </c>
       <c r="R7" t="n">
-        <v>-925845.0191206227</v>
+        <v>-808354.3378744698</v>
       </c>
       <c r="S7" t="n">
-        <v>-1206298.556586267</v>
+        <v>-1045191.822090333</v>
       </c>
       <c r="T7" t="n">
-        <v>-580114.2445683938</v>
+        <v>-654902.3015396841</v>
       </c>
       <c r="U7" t="n">
-        <v>-773115.5698930812</v>
+        <v>-868838.9238425848</v>
       </c>
       <c r="V7" t="n">
-        <v>-2660.556326422685</v>
+        <v>-20695.99632947404</v>
       </c>
       <c r="W7" t="n">
-        <v>-3595.387376963283</v>
+        <v>-28338.83683465396</v>
       </c>
       <c r="X7" t="n">
-        <v>-700686.1039593699</v>
+        <v>-449691.443938965</v>
       </c>
       <c r="Y7" t="n">
-        <v>-936506.4576171953</v>
+        <v>-591847.453471159</v>
       </c>
       <c r="Z7" t="n">
-        <v>-4824948.515969086</v>
+        <v>-5133561.644279804</v>
       </c>
       <c r="AA7" t="n">
-        <v>-5105402.053434731</v>
+        <v>-5370399.128495668</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.4519921427870064</v>
+        <v>0.5819854897880635</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5459349025040811</v>
+        <v>0.3996228057819115</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002072954708912579</v>
+        <v>0.0183917044300249</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4512652995323223</v>
+        <v>0.5834951051110915</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.546636083359469</v>
+        <v>0.3974730903463229</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.002098617108208606</v>
+        <v>0.01903180454258559</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1223,7 @@
         <v>2026</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1234,91 +1234,91 @@
         <v>744</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.93</v>
+        <v>-28.83000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G8" t="n">
-        <v>-22.93</v>
+        <v>-13.83000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>-63.13</v>
+        <v>-53.59</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="K8" t="n">
-        <v>33</v>
+        <v>14.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1248627.414203487</v>
+        <v>2040046.236714486</v>
       </c>
       <c r="M8" t="n">
-        <v>-5565492</v>
+        <v>-6509427.119999999</v>
       </c>
       <c r="N8" t="n">
-        <v>-3892980</v>
+        <v>-5298031.440000001</v>
       </c>
       <c r="O8" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P8" t="n">
-        <v>-1712688</v>
+        <v>-910075.6800000002</v>
       </c>
       <c r="Q8" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
       <c r="R8" t="n">
-        <v>-1008075.409395553</v>
+        <v>-852200.0402227421</v>
       </c>
       <c r="S8" t="n">
-        <v>-1322381.874685122</v>
+        <v>-1098389.27857493</v>
       </c>
       <c r="T8" t="n">
-        <v>-578429.3172229391</v>
+        <v>-686736.8695941138</v>
       </c>
       <c r="U8" t="n">
-        <v>-770870.0750149498</v>
+        <v>-911072.8750508449</v>
       </c>
       <c r="V8" t="n">
-        <v>-2945.615932825116</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W8" t="n">
-        <v>-3980.607453066492</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X8" t="n">
-        <v>-811123.7491104903</v>
+        <v>-471632.4822493862</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1084925.051225851</v>
+        <v>-626193.9084342328</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5324939.995192069</v>
+        <v>-5321580.923508255</v>
       </c>
       <c r="AA8" t="n">
-        <v>-5639246.460481637</v>
+        <v>-5567770.161860442</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4153894898353231</v>
+        <v>0.5821011520247271</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5824951645845783</v>
+        <v>0.3997714749346589</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.00211534558009865</v>
+        <v>0.01812737304061389</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4144962540638465</v>
+        <v>0.5815790946312875</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.583363376330857</v>
+        <v>0.3997279430698498</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002140369605296575</v>
+        <v>0.01869296229886271</v>
       </c>
     </row>
     <row r="9">
@@ -1326,7 +1326,7 @@
         <v>2026</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1337,91 +1337,91 @@
         <v>720</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.41</v>
+        <v>-29</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G9" t="n">
-        <v>-21.41</v>
+        <v>-14</v>
       </c>
       <c r="H9" t="n">
-        <v>-62.21</v>
+        <v>-53.32</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.699999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="K9" t="n">
-        <v>33.1</v>
+        <v>12.9</v>
       </c>
       <c r="L9" t="n">
-        <v>951669.1105195042</v>
+        <v>1979933.493594665</v>
       </c>
       <c r="M9" t="n">
-        <v>-5129280</v>
+        <v>-6305140.8</v>
       </c>
       <c r="N9" t="n">
-        <v>-3493800</v>
+        <v>-5157360.000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>38880</v>
+        <v>-291600</v>
       </c>
       <c r="P9" t="n">
-        <v>-1674360</v>
+        <v>-856180.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4325207.306405335</v>
       </c>
       <c r="R9" t="n">
-        <v>-958970.0567683782</v>
+        <v>-834588.0391126184</v>
       </c>
       <c r="S9" t="n">
-        <v>-1259947.694527603</v>
+        <v>-1078632.98648661</v>
       </c>
       <c r="T9" t="n">
-        <v>-519118.0916710349</v>
+        <v>-668502.8773196348</v>
       </c>
       <c r="U9" t="n">
-        <v>-691826.2791196543</v>
+        <v>-886882.3932219277</v>
       </c>
       <c r="V9" t="n">
-        <v>-2850.596064024301</v>
+        <v>-20695.99632947404</v>
       </c>
       <c r="W9" t="n">
-        <v>-3852.200761032089</v>
+        <v>-28338.83683465396</v>
       </c>
       <c r="X9" t="n">
-        <v>-792918.1249312954</v>
+        <v>-468828.9718164954</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1061685.235959194</v>
+        <v>-625949.731248498</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5136580.946248876</v>
+        <v>-5159795.345517953</v>
       </c>
       <c r="AA9" t="n">
-        <v>-5437558.5840081</v>
+        <v>-5403840.292891944</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3948005917089977</v>
+        <v>0.5772770317546657</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.603031468026818</v>
+        <v>0.4048512077254887</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002167940264184263</v>
+        <v>0.01787176051984559</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3936727911723251</v>
+        <v>0.575460098515551</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6041351749724687</v>
+        <v>0.4061520408601763</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002192033855206259</v>
+        <v>0.01838786062427256</v>
       </c>
     </row>
     <row r="10">
@@ -1429,7 +1429,7 @@
         <v>2026</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1440,91 +1440,91 @@
         <v>744</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.83000000000001</v>
+        <v>-29.58</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.83000000000001</v>
+        <v>-14.58</v>
       </c>
       <c r="H10" t="n">
-        <v>-61.59</v>
+        <v>-53.26</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.66</v>
+        <v>11.38</v>
       </c>
       <c r="K10" t="n">
-        <v>31.1</v>
+        <v>12.3</v>
       </c>
       <c r="L10" t="n">
-        <v>997229.8142034872</v>
+        <v>2126714.796714487</v>
       </c>
       <c r="M10" t="n">
-        <v>-5314094.4</v>
+        <v>-6596095.68</v>
       </c>
       <c r="N10" t="n">
-        <v>-3688380</v>
+        <v>-5435857.440000001</v>
       </c>
       <c r="O10" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P10" t="n">
-        <v>-1665890.4</v>
+        <v>-858918.2399999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
       <c r="R10" t="n">
-        <v>-980336.9743156913</v>
+        <v>-868931.8303305077</v>
       </c>
       <c r="S10" t="n">
-        <v>-1283443.080619189</v>
+        <v>-1124833.16176414</v>
       </c>
       <c r="T10" t="n">
-        <v>-548029.3053287584</v>
+        <v>-704602.0326948954</v>
       </c>
       <c r="U10" t="n">
-        <v>-730356.1198063302</v>
+        <v>-934774.0424559115</v>
       </c>
       <c r="V10" t="n">
-        <v>-2945.615932825116</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W10" t="n">
-        <v>-3980.607453066492</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X10" t="n">
-        <v>-794004.2196470882</v>
+        <v>-480024.1534778706</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1062409.023071408</v>
+        <v>-638938.704346028</v>
       </c>
       <c r="Z10" t="n">
-        <v>-5297201.560112206</v>
+        <v>-5338312.71361602</v>
       </c>
       <c r="AA10" t="n">
-        <v>-5600307.666415704</v>
+        <v>-5594214.045049652</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.4074630517752925</v>
+        <v>0.5842412878477763</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.5903468652388593</v>
+        <v>0.3980260013632253</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002190082985848427</v>
+        <v>0.01773271078899833</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4064882967842624</v>
+        <v>0.583141766481827</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5912962492750041</v>
+        <v>0.3985902772257669</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002215453940733468</v>
+        <v>0.01826795629240614</v>
       </c>
     </row>
     <row r="11">
@@ -1532,7 +1532,7 @@
         <v>2026</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1540,94 +1540,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E11" t="n">
-        <v>-20</v>
+        <v>-31.01</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G11" t="n">
-        <v>-22</v>
+        <v>-16.01</v>
       </c>
       <c r="H11" t="n">
-        <v>-61.32</v>
+        <v>-53.61</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.42</v>
+        <v>10.98</v>
       </c>
       <c r="K11" t="n">
-        <v>29.9</v>
+        <v>11.62</v>
       </c>
       <c r="L11" t="n">
-        <v>962973.1105195042</v>
+        <v>2318783.374473254</v>
       </c>
       <c r="M11" t="n">
-        <v>-5140584</v>
+        <v>-6818559.12</v>
       </c>
       <c r="N11" t="n">
-        <v>-3600000</v>
+        <v>-5698645.680000002</v>
       </c>
       <c r="O11" t="n">
-        <v>38880</v>
+        <v>-301320</v>
       </c>
       <c r="P11" t="n">
-        <v>-1579464</v>
+        <v>-818593.4399999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4499775.745526745</v>
       </c>
       <c r="R11" t="n">
-        <v>-944568.4195528282</v>
+        <v>-881458.8989049925</v>
       </c>
       <c r="S11" t="n">
-        <v>-1234851.338714521</v>
+        <v>-1148208.161585223</v>
       </c>
       <c r="T11" t="n">
-        <v>-534897.5699856103</v>
+        <v>-738664.9436737228</v>
       </c>
       <c r="U11" t="n">
-        <v>-712855.5168672375</v>
+        <v>-979964.2683082429</v>
       </c>
       <c r="V11" t="n">
-        <v>-2850.596064024301</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W11" t="n">
-        <v>-3852.200761032089</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X11" t="n">
-        <v>-760720.2197872543</v>
+        <v>-461049.4342441024</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1014059.531863562</v>
+        <v>-614023.751243819</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5122179.309033325</v>
+        <v>-5381234.644431737</v>
       </c>
       <c r="AA11" t="n">
-        <v>-5412462.228195019</v>
+        <v>-5647983.907111968</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4119450083036547</v>
+        <v>0.6049175317456829</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5858596390061163</v>
+        <v>0.3775688668648638</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.002195352690228984</v>
+        <v>0.01751360138945335</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4118725478983601</v>
+        <v>0.6036970881319818</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5859017335585122</v>
+        <v>0.3782631292360273</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.002225718543127696</v>
+        <v>0.01803978263199107</v>
       </c>
     </row>
     <row r="12">
@@ -1635,7 +1635,7 @@
         <v>2026</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1643,94 +1643,94 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.58</v>
+        <v>-32.13</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G12" t="n">
-        <v>-22.58</v>
+        <v>-17.13</v>
       </c>
       <c r="H12" t="n">
-        <v>-61.26</v>
+        <v>-54.23</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.38</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3</v>
+        <v>12.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1075126.614203486</v>
+        <v>2433473.510780567</v>
       </c>
       <c r="M12" t="n">
-        <v>-5391991.2</v>
+        <v>-6788095.2</v>
       </c>
       <c r="N12" t="n">
-        <v>-3827880</v>
+        <v>-5713999.200000001</v>
       </c>
       <c r="O12" t="n">
-        <v>40176</v>
+        <v>-291600</v>
       </c>
       <c r="P12" t="n">
-        <v>-1604287.2</v>
+        <v>-782496</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4354621.689219432</v>
       </c>
       <c r="R12" t="n">
-        <v>-976834.5517176646</v>
+        <v>-860177.7362760741</v>
       </c>
       <c r="S12" t="n">
-        <v>-1275141.421463507</v>
+        <v>-1119675.713451647</v>
       </c>
       <c r="T12" t="n">
-        <v>-568756.5861656986</v>
+        <v>-740655.0844234442</v>
       </c>
       <c r="U12" t="n">
-        <v>-757979.2710849334</v>
+        <v>-982604.5273869155</v>
       </c>
       <c r="V12" t="n">
-        <v>-2945.615932825116</v>
+        <v>-20695.99632947404</v>
       </c>
       <c r="W12" t="n">
-        <v>-3980.607453066492</v>
+        <v>-28338.83683465396</v>
       </c>
       <c r="X12" t="n">
-        <v>-772248.5402937958</v>
+        <v>-416286.5287333073</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1031266.914138259</v>
+        <v>-553049.5705681219</v>
       </c>
       <c r="Z12" t="n">
-        <v>-5293699.13751418</v>
+        <v>-5214799.425495506</v>
       </c>
       <c r="AA12" t="n">
-        <v>-5592006.007260023</v>
+        <v>-5474297.402671079</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.4231974939448116</v>
+        <v>0.6289329403691293</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.5746107472057669</v>
+        <v>0.3534928957601167</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002191758849421615</v>
+        <v>0.01757416387075409</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.4226901327710508</v>
+        <v>0.6282666024441124</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5750900657686299</v>
+        <v>0.3536138548109809</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.002219801460319321</v>
+        <v>0.01811954274490675</v>
       </c>
     </row>
     <row r="13">
@@ -1738,7 +1738,7 @@
         <v>2026</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1749,91 +1749,91 @@
         <v>744</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.01</v>
+        <v>-32</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G13" t="n">
-        <v>-24.01</v>
+        <v>-17</v>
       </c>
       <c r="H13" t="n">
-        <v>-61.61</v>
+        <v>-54.54</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.98</v>
+        <v>9.139999999999997</v>
       </c>
       <c r="K13" t="n">
-        <v>28.62</v>
+        <v>13.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1300335.414203487</v>
+        <v>2516054.974473254</v>
       </c>
       <c r="M13" t="n">
-        <v>-5617200</v>
+        <v>-7015830.72</v>
       </c>
       <c r="N13" t="n">
-        <v>-4093860</v>
+        <v>-5880576</v>
       </c>
       <c r="O13" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P13" t="n">
-        <v>-1563516</v>
+        <v>-833934.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4499775.745526745</v>
       </c>
       <c r="R13" t="n">
-        <v>-986441.0501277825</v>
+        <v>-878922.6557474415</v>
       </c>
       <c r="S13" t="n">
-        <v>-1285301.46337821</v>
+        <v>-1144775.618067828</v>
       </c>
       <c r="T13" t="n">
-        <v>-608276.6016281366</v>
+        <v>-762246.9589667574</v>
       </c>
       <c r="U13" t="n">
-        <v>-810647.4128561417</v>
+        <v>-1011249.809282935</v>
       </c>
       <c r="V13" t="n">
-        <v>-2945.615932825116</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W13" t="n">
-        <v>-3980.607453066492</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X13" t="n">
-        <v>-752122.1118389395</v>
+        <v>-417941.3032471046</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1004143.548951257</v>
+        <v>-552774.5546561857</v>
       </c>
       <c r="Z13" t="n">
-        <v>-5303305.635924298</v>
+        <v>-5378698.401274187</v>
       </c>
       <c r="AA13" t="n">
-        <v>-5602166.049174725</v>
+        <v>-5644551.363594573</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.4461650578734426</v>
+        <v>0.6343736462460469</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5516743610691502</v>
+        <v>0.3478281485269307</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002160581057407323</v>
+        <v>0.01779820522702235</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.4457115047085111</v>
+        <v>0.6346857720068879</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5520998711012147</v>
+        <v>0.3469351902439419</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.00218862419027424</v>
+        <v>0.01837903774917021</v>
       </c>
     </row>
     <row r="14">
@@ -1841,7 +1841,7 @@
         <v>2026</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1852,91 +1852,91 @@
         <v>720</v>
       </c>
       <c r="E14" t="n">
-        <v>-23.13</v>
+        <v>-30.48</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G14" t="n">
-        <v>-25.13</v>
+        <v>-15.48</v>
       </c>
       <c r="H14" t="n">
-        <v>-62.23</v>
+        <v>-54.5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.899999999999999</v>
+        <v>9.219999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>29.2</v>
+        <v>14.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1457829.110519504</v>
+        <v>2222434.310780568</v>
       </c>
       <c r="M14" t="n">
-        <v>-5635440</v>
+        <v>-6577056</v>
       </c>
       <c r="N14" t="n">
-        <v>-4163400</v>
+        <v>-5420563.200000001</v>
       </c>
       <c r="O14" t="n">
-        <v>38880</v>
+        <v>-291600</v>
       </c>
       <c r="P14" t="n">
-        <v>-1510920</v>
+        <v>-864892.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4354621.689219432</v>
       </c>
       <c r="R14" t="n">
-        <v>-971248.6525127828</v>
+        <v>-828806.3350240963</v>
       </c>
       <c r="S14" t="n">
-        <v>-1261303.729326993</v>
+        <v>-1078280.974655378</v>
       </c>
       <c r="T14" t="n">
-        <v>-618609.039688358</v>
+        <v>-702619.5758862918</v>
       </c>
       <c r="U14" t="n">
-        <v>-824417.4052569601</v>
+        <v>-932143.9774277358</v>
       </c>
       <c r="V14" t="n">
-        <v>-2850.596064024301</v>
+        <v>-20695.99632947404</v>
       </c>
       <c r="W14" t="n">
-        <v>-3852.200761032089</v>
+        <v>-28338.83683465396</v>
       </c>
       <c r="X14" t="n">
-        <v>-720439.3432640142</v>
+        <v>-422256.2598474405</v>
       </c>
       <c r="Y14" t="n">
-        <v>-963078.1364959409</v>
+        <v>-555852.5884014177</v>
       </c>
       <c r="Z14" t="n">
-        <v>-5148859.54199328</v>
+        <v>-5183428.024243528</v>
       </c>
       <c r="AA14" t="n">
-        <v>-5438914.61880749</v>
+        <v>-5432902.663874811</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.4609952383612323</v>
+        <v>0.6133352411614859</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.5368804615918941</v>
+        <v>0.3685986753767727</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0021243000468737</v>
+        <v>0.01806608346174153</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4602218685356943</v>
+        <v>0.6147346924632907</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.5376276831344766</v>
+        <v>0.3665762781934188</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.002150448329829029</v>
+        <v>0.0186890293432904</v>
       </c>
     </row>
     <row r="15">
@@ -1944,7 +1944,7 @@
         <v>2026</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1955,297 +1955,297 @@
         <v>744</v>
       </c>
       <c r="E15" t="n">
-        <v>-23</v>
+        <v>-30.85</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G15" t="n">
-        <v>-25</v>
+        <v>-15.85</v>
       </c>
       <c r="H15" t="n">
-        <v>-62.54</v>
+        <v>-54.71</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.139999999999997</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="K15" t="n">
-        <v>30.4</v>
+        <v>14.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1516021.014203486</v>
+        <v>2357575.534473254</v>
       </c>
       <c r="M15" t="n">
-        <v>-5832885.6</v>
+        <v>-6857351.279999999</v>
       </c>
       <c r="N15" t="n">
-        <v>-4278000</v>
+        <v>-5669242.800000002</v>
       </c>
       <c r="O15" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P15" t="n">
-        <v>-1595061.6</v>
+        <v>-886788.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4499775.745526745</v>
       </c>
       <c r="R15" t="n">
-        <v>-1008144.960585331</v>
+        <v>-864423.2487014281</v>
       </c>
       <c r="S15" t="n">
-        <v>-1312103.887636242</v>
+        <v>-1123638.116786935</v>
       </c>
       <c r="T15" t="n">
-        <v>-635636.6123328998</v>
+        <v>-734853.7088788884</v>
       </c>
       <c r="U15" t="n">
-        <v>-847109.9725439007</v>
+        <v>-974908.0192618279</v>
       </c>
       <c r="V15" t="n">
-        <v>-2945.615932825116</v>
+        <v>-21385.86287378985</v>
       </c>
       <c r="W15" t="n">
-        <v>-3980.607453066492</v>
+        <v>-29283.46472914243</v>
       </c>
       <c r="X15" t="n">
-        <v>-754985.8642313872</v>
+        <v>-435440.1332119283</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1012103.243854743</v>
+        <v>-573311.2765472494</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5325009.546381846</v>
+        <v>-5364198.994228173</v>
       </c>
       <c r="AA15" t="n">
-        <v>-5628968.473432758</v>
+        <v>-5623413.86231368</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.4561216748253133</v>
+        <v>0.6166537080538045</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5417646028896516</v>
+        <v>0.3654003096619499</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002113722285035182</v>
+        <v>0.0179459822842456</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.4546547770283514</v>
+        <v>0.6180071716192778</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5432087799445686</v>
+        <v>0.3634296502604182</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.002136443027079992</v>
+        <v>0.01856317812030412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.48</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.48</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.5</v>
+        <v>-35.1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.219999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="K16" t="n">
-        <v>31.8</v>
+        <v>15.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1256013.110519504</v>
+        <v>-2195700.614656855</v>
       </c>
       <c r="M16" t="n">
-        <v>-5433624</v>
+        <v>-827328</v>
       </c>
       <c r="N16" t="n">
-        <v>-3866400</v>
+        <v>-68634</v>
       </c>
       <c r="O16" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1606104</v>
+        <v>-758694</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4177610.889480497</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R16" t="n">
-        <v>-968781.0182616138</v>
+        <v>-89574.16509313491</v>
       </c>
       <c r="S16" t="n">
-        <v>-1266114.764612092</v>
+        <v>-119845.0471155512</v>
       </c>
       <c r="T16" t="n">
-        <v>-574479.9901645457</v>
+        <v>-6029.52803913835</v>
       </c>
       <c r="U16" t="n">
-        <v>-765606.8251154134</v>
+        <v>-7950.158149233978</v>
       </c>
       <c r="V16" t="n">
-        <v>-2850.596064024301</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-3852.200761032089</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-760656.1858007089</v>
+        <v>-89073.27123655156</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1018140.540319552</v>
+        <v>-119521.6041502786</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5146391.907742111</v>
+        <v>-3112602.77974999</v>
       </c>
       <c r="AA16" t="n">
-        <v>-5443725.654092589</v>
+        <v>-3142873.661772406</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.4293614871044289</v>
+        <v>0.06340011109094254</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5685080015006782</v>
+        <v>0.9365998889090574</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.002130511394892865</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.4282876543456657</v>
+        <v>0.06236799433708289</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5695573883395765</v>
+        <v>0.9376320056629172</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.002154957314757886</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.85</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-23.85</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H17" t="n">
-        <v>-62.71</v>
+        <v>-35.48</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.259999999999998</v>
+        <v>18.54</v>
       </c>
       <c r="K17" t="n">
-        <v>31.6</v>
+        <v>14.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1358813.814203487</v>
+        <v>-1764679.058399741</v>
       </c>
       <c r="M17" t="n">
-        <v>-5675678.4</v>
+        <v>-965798.3999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>-4064100</v>
+        <v>-308582.4000000004</v>
       </c>
       <c r="O17" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1651754.4</v>
+        <v>-657216</v>
       </c>
       <c r="Q17" t="n">
-        <v>-4316864.585796515</v>
+        <v>-2730477.458399741</v>
       </c>
       <c r="R17" t="n">
-        <v>-1006485.205870221</v>
+        <v>-82383.71344993848</v>
       </c>
       <c r="S17" t="n">
-        <v>-1312835.133500755</v>
+        <v>-108794.6596160605</v>
       </c>
       <c r="T17" t="n">
-        <v>-603854.7817162555</v>
+        <v>-27109.10384334858</v>
       </c>
       <c r="U17" t="n">
-        <v>-804754.4739167063</v>
+        <v>-35744.36696200067</v>
       </c>
       <c r="V17" t="n">
-        <v>-2945.615932825116</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3980.607453066492</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-782221.7037509274</v>
+        <v>-77138.09374003376</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1047350.171958694</v>
+        <v>-103545.7549800923</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5323349.791666737</v>
+        <v>-2812861.17184968</v>
       </c>
       <c r="AA17" t="n">
-        <v>-5629699.719297271</v>
+        <v>-2839272.118015802</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.4347337462144229</v>
+        <v>0.2600463558904335</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5631456137109114</v>
+        <v>0.7399536441095665</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002120640074665624</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.4335762446652503</v>
+        <v>0.2566181037364635</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5642791300025199</v>
+        <v>0.7433818962635363</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.002144625332229852</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -2253,7 +2253,7 @@
         <v>2027</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2264,91 +2264,91 @@
         <v>744</v>
       </c>
       <c r="E18" t="n">
-        <v>6.549999999999997</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4500000000000028</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H18" t="n">
-        <v>-35.1</v>
+        <v>-35.13</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="K18" t="n">
-        <v>22.35</v>
+        <v>16</v>
       </c>
       <c r="L18" t="n">
-        <v>-3216942.72320749</v>
+        <v>-2259945.014656856</v>
       </c>
       <c r="M18" t="n">
-        <v>476718</v>
+        <v>-763083.5999999996</v>
       </c>
       <c r="N18" t="n">
-        <v>1023372</v>
+        <v>10676.40000000037</v>
       </c>
       <c r="O18" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-702894</v>
+        <v>-773760</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R18" t="n">
-        <v>-142754.7542907282</v>
+        <v>-90807.27572808691</v>
       </c>
       <c r="S18" t="n">
-        <v>-180252.6020873167</v>
+        <v>-121742.7622757401</v>
       </c>
       <c r="T18" t="n">
-        <v>-104773.237856672</v>
+        <v>-953.4244503292773</v>
       </c>
       <c r="U18" t="n">
-        <v>-135226.8492793747</v>
+        <v>-1252.515258097338</v>
       </c>
       <c r="V18" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>-95643.53311064906</v>
+        <v>-90770.18897952874</v>
       </c>
       <c r="Y18" t="n">
-        <v>-125137.5574482234</v>
+        <v>-121749.199195905</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2882979.477498217</v>
+        <v>-3113835.890384942</v>
       </c>
       <c r="AA18" t="n">
-        <v>-2920477.325294806</v>
+        <v>-3144771.376932595</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5096452379426565</v>
+        <v>0.01039453652857201</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.465235895988386</v>
+        <v>0.9896054634714281</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0251188660689576</v>
+        <v>-0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5060879102706834</v>
+        <v>0.01018290894283208</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.4683286291356965</v>
+        <v>0.989817091057168</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.02558346059362007</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -2356,7 +2356,7 @@
         <v>2027</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2364,94 +2364,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="E19" t="n">
-        <v>4.760000000000005</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.239999999999995</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H19" t="n">
-        <v>-35.48</v>
+        <v>-34.21</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.54</v>
+        <v>19.7</v>
       </c>
       <c r="K19" t="n">
-        <v>21.7</v>
+        <v>16.1</v>
       </c>
       <c r="L19" t="n">
-        <v>-2674155.285477732</v>
+        <v>-2399875.56257115</v>
       </c>
       <c r="M19" t="n">
-        <v>199113.6000000006</v>
+        <v>-525636</v>
       </c>
       <c r="N19" t="n">
-        <v>671731.2000000002</v>
+        <v>234684</v>
       </c>
       <c r="O19" t="n">
-        <v>141120</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-613737.6</v>
+        <v>-760320</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2475041.685477732</v>
+        <v>-2925511.562571151</v>
       </c>
       <c r="R19" t="n">
-        <v>-109684.5331190598</v>
+        <v>-92891.0138459195</v>
       </c>
       <c r="S19" t="n">
-        <v>-138030.0886891722</v>
+        <v>-122349.2857206554</v>
       </c>
       <c r="T19" t="n">
-        <v>-68772.11101471119</v>
+        <v>-20957.76326296903</v>
       </c>
       <c r="U19" t="n">
-        <v>-88761.55859125793</v>
+        <v>-27532.24783925377</v>
       </c>
       <c r="V19" t="n">
-        <v>-4664.217161725486</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-6174.369185784322</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-83546.3094430981</v>
+        <v>-89088.93246882623</v>
       </c>
       <c r="Y19" t="n">
-        <v>-109336.7464030436</v>
+        <v>-119687.5019949525</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2584726.218596792</v>
+        <v>-3018402.576417071</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2613071.774166904</v>
+        <v>-3047860.848291806</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.4380873710466517</v>
+        <v>0.190444275710441</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.5322009536212664</v>
+        <v>0.809555724289559</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02971167533208192</v>
+        <v>-0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4345248768467492</v>
+        <v>0.1870146354022448</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.5352490089137072</v>
+        <v>0.8129853645977553</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0302261142395435</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -2459,7 +2459,7 @@
         <v>2027</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2470,91 +2470,91 @@
         <v>744</v>
       </c>
       <c r="E20" t="n">
-        <v>7.069999999999993</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06999999999999318</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H20" t="n">
-        <v>-35.13</v>
+        <v>-33.59</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.2</v>
+        <v>20.66</v>
       </c>
       <c r="K20" t="n">
-        <v>23</v>
+        <v>14.1</v>
       </c>
       <c r="L20" t="n">
-        <v>-3287585.52320749</v>
+        <v>-2450037.014656856</v>
       </c>
       <c r="M20" t="n">
-        <v>547360.7999999998</v>
+        <v>-572991.5999999996</v>
       </c>
       <c r="N20" t="n">
-        <v>1104616.8</v>
+        <v>178448.4000000004</v>
       </c>
       <c r="O20" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-713496</v>
+        <v>-751440.0000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R20" t="n">
-        <v>-150247.1039829609</v>
+        <v>-91484.87942797497</v>
       </c>
       <c r="S20" t="n">
-        <v>-189529.8426210204</v>
+        <v>-120912.7576976461</v>
       </c>
       <c r="T20" t="n">
-        <v>-113091.1132285</v>
+        <v>-15935.80866976842</v>
       </c>
       <c r="U20" t="n">
-        <v>-145962.4159397226</v>
+        <v>-20934.89788532076</v>
       </c>
       <c r="V20" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-97474.16110818423</v>
+        <v>-89149.19112750881</v>
       </c>
       <c r="Y20" t="n">
-        <v>-127311.1611421517</v>
+        <v>-119383.9653716162</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2890471.82719045</v>
+        <v>-3114513.49408483</v>
       </c>
       <c r="AA20" t="n">
-        <v>-2929754.56582851</v>
+        <v>-3143941.372354501</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.524227123629722</v>
+        <v>0.1516468449399123</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.451835671674034</v>
+        <v>0.8483531550600877</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.02393720469624394</v>
+        <v>-0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.5210905853856396</v>
+        <v>0.1491951787478994</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4545049974582886</v>
+        <v>0.8508048212521006</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.02440441715607182</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -2562,7 +2562,7 @@
         <v>2027</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2573,91 +2573,91 @@
         <v>720</v>
       </c>
       <c r="E21" t="n">
-        <v>8.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-34.21</v>
+        <v>-33.32</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>19.7</v>
+        <v>21.42</v>
       </c>
       <c r="K21" t="n">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="L21" t="n">
-        <v>-3402358.37729757</v>
+        <v>-2362471.56257115</v>
       </c>
       <c r="M21" t="n">
-        <v>750528</v>
+        <v>-563040</v>
       </c>
       <c r="N21" t="n">
-        <v>1298808</v>
+        <v>147600</v>
       </c>
       <c r="O21" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-699480</v>
+        <v>-710640</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2925511.562571151</v>
       </c>
       <c r="R21" t="n">
-        <v>-163117.2317046339</v>
+        <v>-87303.13301833782</v>
       </c>
       <c r="S21" t="n">
-        <v>-207903.526085596</v>
+        <v>-115264.9955613474</v>
       </c>
       <c r="T21" t="n">
-        <v>-132972.4865583066</v>
+        <v>-13180.9831842575</v>
       </c>
       <c r="U21" t="n">
-        <v>-171622.5513878092</v>
+        <v>-17315.87914418502</v>
       </c>
       <c r="V21" t="n">
-        <v>-4997.375530420179</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-6615.395556197487</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>-95153.81787635195</v>
+        <v>-85123.26166783285</v>
       </c>
       <c r="Y21" t="n">
-        <v>-124626.8644321255</v>
+        <v>-114066.7613940983</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2814947.609002204</v>
+        <v>-3012814.695589489</v>
       </c>
       <c r="AA21" t="n">
-        <v>-2859733.903383166</v>
+        <v>-3040776.558132499</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.5703945930255798</v>
+        <v>0.1340835607260882</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4081688221917469</v>
+        <v>0.8659164392739118</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02143658478267317</v>
+        <v>-0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5666638874552801</v>
+        <v>0.1317973141142598</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.4114933784015919</v>
+        <v>0.8682026858857401</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.02184273414312808</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -2665,7 +2665,7 @@
         <v>2027</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2676,91 +2676,91 @@
         <v>744</v>
       </c>
       <c r="E22" t="n">
-        <v>8.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H22" t="n">
-        <v>-33.59</v>
+        <v>-33.26</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.66</v>
+        <v>21.38</v>
       </c>
       <c r="K22" t="n">
-        <v>21.1</v>
+        <v>12.3</v>
       </c>
       <c r="L22" t="n">
-        <v>-3473064.723207491</v>
+        <v>-2369127.014656856</v>
       </c>
       <c r="M22" t="n">
-        <v>732840</v>
+        <v>-653901.5999999996</v>
       </c>
       <c r="N22" t="n">
-        <v>1276480.800000001</v>
+        <v>64058.40000000037</v>
       </c>
       <c r="O22" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-699880.8</v>
+        <v>-717960</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R22" t="n">
-        <v>-161553.5260564601</v>
+        <v>-86306.53187505068</v>
       </c>
       <c r="S22" t="n">
-        <v>-205145.4637549139</v>
+        <v>-116025.1725276456</v>
       </c>
       <c r="T22" t="n">
-        <v>-130686.6188227509</v>
+        <v>-5720.546701967894</v>
       </c>
       <c r="U22" t="n">
-        <v>-168672.268490458</v>
+        <v>-7515.091548576439</v>
       </c>
       <c r="V22" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-95031.14420925394</v>
+        <v>-86684.98185002629</v>
       </c>
       <c r="Y22" t="n">
-        <v>-123916.2733508404</v>
+        <v>-115788.6614247822</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2901778.249263949</v>
+        <v>-3109335.146531906</v>
       </c>
       <c r="AA22" t="n">
-        <v>-2945370.186962403</v>
+        <v>-3139053.787184501</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.5660327725302446</v>
+        <v>0.06190697452424712</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4116009926497631</v>
+        <v>0.9380930254757529</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0223662348199923</v>
+        <v>-0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5633216264143062</v>
+        <v>0.0609477924828466</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.4138482114927155</v>
+        <v>0.9390522075171533</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.02283016209297831</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -2768,7 +2768,7 @@
         <v>2027</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2776,94 +2776,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>-33.32</v>
+        <v>-33.61</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.42</v>
+        <v>20.98</v>
       </c>
       <c r="K23" t="n">
-        <v>19.9</v>
+        <v>11.62</v>
       </c>
       <c r="L23" t="n">
-        <v>-3345982.37729757</v>
+        <v>-2176170.614656856</v>
       </c>
       <c r="M23" t="n">
-        <v>694152</v>
+        <v>-846858</v>
       </c>
       <c r="N23" t="n">
-        <v>1209600</v>
+        <v>-154045.2000000002</v>
       </c>
       <c r="O23" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-666648</v>
+        <v>-692812.7999999998</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2651830.37729757</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R23" t="n">
-        <v>-153721.630097789</v>
+        <v>-84425.91016759039</v>
       </c>
       <c r="S23" t="n">
-        <v>-194621.5355201108</v>
+        <v>-113550.0432799317</v>
       </c>
       <c r="T23" t="n">
-        <v>-123839.3355607051</v>
+        <v>-13532.94071006452</v>
       </c>
       <c r="U23" t="n">
-        <v>-159834.7393600091</v>
+        <v>-17843.68829050133</v>
       </c>
       <c r="V23" t="n">
-        <v>-4997.375530420179</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6615.395556197487</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-90605.32445099766</v>
+        <v>-84270.07433973718</v>
       </c>
       <c r="Y23" t="n">
-        <v>-117830.0601696161</v>
+        <v>-112225.3423250921</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2805552.007395359</v>
+        <v>-3107454.524824445</v>
       </c>
       <c r="AA23" t="n">
-        <v>-2846451.912817681</v>
+        <v>-3136578.657936787</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.5643373442775669</v>
+        <v>0.1383693611405895</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4128895552174439</v>
+        <v>0.8616306388594105</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0227731005049892</v>
+        <v>-0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.5622436670685266</v>
+        <v>0.1371862941243611</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.414485645523227</v>
+        <v>0.8628137058756389</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.02327068740824641</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -2871,7 +2871,7 @@
         <v>2027</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2879,94 +2879,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E24" t="n">
-        <v>7.420000000000002</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4200000000000017</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H24" t="n">
-        <v>-33.26</v>
+        <v>-34.23</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>21.38</v>
+        <v>19.9</v>
       </c>
       <c r="K24" t="n">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="L24" t="n">
-        <v>-3378651.123207489</v>
+        <v>-1945483.56257115</v>
       </c>
       <c r="M24" t="n">
-        <v>638426.3999999994</v>
+        <v>-980028</v>
       </c>
       <c r="N24" t="n">
-        <v>1159300.8</v>
+        <v>-314388</v>
       </c>
       <c r="O24" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-677114.4</v>
+        <v>-665640</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2740224.723207489</v>
+        <v>-2925511.562571151</v>
       </c>
       <c r="R24" t="n">
-        <v>-150642.3084734135</v>
+        <v>-84064.69960447498</v>
       </c>
       <c r="S24" t="n">
-        <v>-190398.2513082125</v>
+        <v>-111942.025985035</v>
       </c>
       <c r="T24" t="n">
-        <v>-118689.6831903057</v>
+        <v>-27619.12843734051</v>
       </c>
       <c r="U24" t="n">
-        <v>-153188.2781149551</v>
+        <v>-36416.85345777848</v>
       </c>
       <c r="V24" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>-92085.87398362493</v>
+        <v>-79626.36722988277</v>
       </c>
       <c r="Y24" t="n">
-        <v>-119676.8749690331</v>
+        <v>-106663.770643065</v>
       </c>
       <c r="Z24" t="n">
-        <v>-2890867.031680902</v>
+        <v>-3009576.262175626</v>
       </c>
       <c r="AA24" t="n">
-        <v>-2930622.974515702</v>
+        <v>-3037453.588556186</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.5496431947641061</v>
+        <v>0.2575318270059668</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4264429106938468</v>
+        <v>0.7424681729940332</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0239138945420473</v>
+        <v>-0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.5476857224467215</v>
+        <v>0.2545198113764992</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4278742246739959</v>
+        <v>0.7454801886235007</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02444005287928257</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -2974,7 +2974,7 @@
         <v>2027</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2985,91 +2985,91 @@
         <v>744</v>
       </c>
       <c r="E25" t="n">
-        <v>5.990000000000002</v>
+        <v>-2</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.009999999999998</v>
+        <v>-2</v>
       </c>
       <c r="H25" t="n">
-        <v>-33.61</v>
+        <v>-34.54</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.98</v>
+        <v>19.14</v>
       </c>
       <c r="K25" t="n">
-        <v>18.62</v>
+        <v>13.4</v>
       </c>
       <c r="L25" t="n">
-        <v>-3173827.92320749</v>
+        <v>-2013048.614656854</v>
       </c>
       <c r="M25" t="n">
-        <v>433603.1999999993</v>
+        <v>-1009980.000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>935877.5999999996</v>
+        <v>-305040.0000000009</v>
       </c>
       <c r="O25" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-658514.4</v>
+        <v>-704940</v>
       </c>
       <c r="Q25" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R25" t="n">
-        <v>-132088.4824073404</v>
+        <v>-87930.6300395867</v>
       </c>
       <c r="S25" t="n">
-        <v>-166121.1779854782</v>
+        <v>-116527.5248576368</v>
       </c>
       <c r="T25" t="n">
-        <v>-95815.52591777997</v>
+        <v>-26797.90239616756</v>
       </c>
       <c r="U25" t="n">
-        <v>-123665.4697989997</v>
+        <v>-35334.03621881472</v>
       </c>
       <c r="V25" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-89574.50338909752</v>
+        <v>-83874.24606270873</v>
       </c>
       <c r="Y25" t="n">
-        <v>-116397.8965135927</v>
+        <v>-111794.9077015604</v>
       </c>
       <c r="Z25" t="n">
-        <v>-2872313.205614829</v>
+        <v>-3110959.244696442</v>
       </c>
       <c r="AA25" t="n">
-        <v>-2906345.901192967</v>
+        <v>-3139556.139514492</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.5028261487668308</v>
+        <v>0.2421377263325213</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4700741569324668</v>
+        <v>0.7578622736674787</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02709969430070233</v>
+        <v>-0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5008741713476246</v>
+        <v>0.2401569349803611</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4714387941727924</v>
+        <v>0.7598430650196389</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.02768703447958309</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -3077,7 +3077,7 @@
         <v>2027</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3088,91 +3088,91 @@
         <v>720</v>
       </c>
       <c r="E26" t="n">
-        <v>4.870000000000005</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.129999999999995</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>-34.23</v>
+        <v>-34.5</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.9</v>
+        <v>19.22</v>
       </c>
       <c r="K26" t="n">
-        <v>19.2</v>
+        <v>14.8</v>
       </c>
       <c r="L26" t="n">
-        <v>-2907214.37729757</v>
+        <v>-2135743.56257115</v>
       </c>
       <c r="M26" t="n">
-        <v>255384</v>
+        <v>-789768</v>
       </c>
       <c r="N26" t="n">
-        <v>736344</v>
+        <v>-70848</v>
       </c>
       <c r="O26" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-632160</v>
+        <v>-718920</v>
       </c>
       <c r="Q26" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2925511.562571151</v>
       </c>
       <c r="R26" t="n">
-        <v>-114850.1976737145</v>
+        <v>-84985.78607081411</v>
       </c>
       <c r="S26" t="n">
-        <v>-145100.00023238</v>
+        <v>-113745.9459908723</v>
       </c>
       <c r="T26" t="n">
-        <v>-75387.19552257852</v>
+        <v>-6224.028943626849</v>
       </c>
       <c r="U26" t="n">
-        <v>-97299.39758540483</v>
+        <v>-8206.614863725565</v>
       </c>
       <c r="V26" t="n">
-        <v>-4997.375530420179</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-6615.395556197487</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-85934.841757177</v>
+        <v>-84654.40969547434</v>
       </c>
       <c r="Y26" t="n">
-        <v>-111775.8834709215</v>
+        <v>-113393.454931305</v>
       </c>
       <c r="Z26" t="n">
-        <v>-2766680.574971284</v>
+        <v>-3010497.348641965</v>
       </c>
       <c r="AA26" t="n">
-        <v>-2796930.37752995</v>
+        <v>-3039257.508562023</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.4532675665986129</v>
+        <v>0.06848741062050895</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5166855768980887</v>
+        <v>0.931512589379491</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.03004685650329827</v>
+        <v>-0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4511061818411268</v>
+        <v>0.06748857034012115</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.5182230647443357</v>
+        <v>0.9325114296598788</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03067075341453759</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -3180,7 +3180,7 @@
         <v>2027</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3191,297 +3191,297 @@
         <v>744</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-2</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H27" t="n">
-        <v>-34.54</v>
+        <v>-34.71</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>19.14</v>
+        <v>19.26</v>
       </c>
       <c r="K27" t="n">
-        <v>20.4</v>
+        <v>14.6</v>
       </c>
       <c r="L27" t="n">
-        <v>-3013421.52320749</v>
+        <v>-2154966.614656855</v>
       </c>
       <c r="M27" t="n">
-        <v>273196.8000000007</v>
+        <v>-868062</v>
       </c>
       <c r="N27" t="n">
-        <v>781200</v>
+        <v>-129642</v>
       </c>
       <c r="O27" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-664243.2</v>
+        <v>-738420</v>
       </c>
       <c r="Q27" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
       <c r="R27" t="n">
-        <v>-121989.7360233083</v>
+        <v>-88062.9010633126</v>
       </c>
       <c r="S27" t="n">
-        <v>-153375.1918899979</v>
+        <v>-117532.8315374652</v>
       </c>
       <c r="T27" t="n">
-        <v>-79979.57088295541</v>
+        <v>-11389.10851837179</v>
       </c>
       <c r="U27" t="n">
-        <v>-103226.6025033392</v>
+        <v>-15016.96539299685</v>
       </c>
       <c r="V27" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>-90096.77904956225</v>
+        <v>-87059.97387068674</v>
       </c>
       <c r="Y27" t="n">
-        <v>-117782.6136806362</v>
+        <v>-116555.1030837886</v>
       </c>
       <c r="Z27" t="n">
-        <v>-2862214.459230797</v>
+        <v>-3111091.515720168</v>
       </c>
       <c r="AA27" t="n">
-        <v>-2893599.915097487</v>
+        <v>-3140561.44619432</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.4563994056272286</v>
+        <v>0.1156852683843558</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.5141327460649221</v>
+        <v>0.8843147316156442</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.02946784830784929</v>
+        <v>-0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4530560069571226</v>
+        <v>0.1141349039112085</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5169415572056267</v>
+        <v>0.8858650960887915</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.03000243583725071</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E28" t="n">
-        <v>6.519999999999996</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.480000000000004</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H28" t="n">
-        <v>-34.5</v>
+        <v>-35.1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.22</v>
+        <v>19.3</v>
       </c>
       <c r="K28" t="n">
-        <v>21.8</v>
+        <v>15.35</v>
       </c>
       <c r="L28" t="n">
-        <v>-3119686.37729757</v>
+        <v>-2477340.717971876</v>
       </c>
       <c r="M28" t="n">
-        <v>467856</v>
+        <v>-380184</v>
       </c>
       <c r="N28" t="n">
-        <v>985824</v>
+        <v>-65286</v>
       </c>
       <c r="O28" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-669168</v>
+        <v>-314898</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R28" t="n">
-        <v>-136489.6817086277</v>
+        <v>-36205.92242055591</v>
       </c>
       <c r="S28" t="n">
-        <v>-172605.6674327788</v>
+        <v>-47593.32949267483</v>
       </c>
       <c r="T28" t="n">
-        <v>-100929.0584819753</v>
+        <v>-3859.098635691375</v>
       </c>
       <c r="U28" t="n">
-        <v>-130265.312578408</v>
+        <v>-4998.474786518553</v>
       </c>
       <c r="V28" t="n">
-        <v>-4997.375530420179</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-6615.395556197487</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-91104.2108651072</v>
+        <v>-36027.75361781039</v>
       </c>
       <c r="Y28" t="n">
-        <v>-118998.2904001027</v>
+        <v>-47213.34637183896</v>
       </c>
       <c r="Z28" t="n">
-        <v>-2788320.059006198</v>
+        <v>-2893730.640392432</v>
       </c>
       <c r="AA28" t="n">
-        <v>-2824436.044730349</v>
+        <v>-2905118.04746455</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.5122505615546484</v>
+        <v>0.09675114524367048</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.4623859954462833</v>
+        <v>0.9032488547563294</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02536344299906815</v>
+        <v>-0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5090895045094465</v>
+        <v>0.0957345420179516</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.4650568865813403</v>
+        <v>0.9042654579820483</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.02585360890921322</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>744</v>
+        <v>696</v>
       </c>
       <c r="E29" t="n">
-        <v>6.149999999999999</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8500000000000014</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H29" t="n">
-        <v>-34.71</v>
+        <v>-35.48</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19.26</v>
+        <v>18.54</v>
       </c>
       <c r="K29" t="n">
-        <v>21.6</v>
+        <v>14.7</v>
       </c>
       <c r="L29" t="n">
-        <v>-3168991.923207491</v>
+        <v>-2086649.084554338</v>
       </c>
       <c r="M29" t="n">
-        <v>428767.1999999993</v>
+        <v>-586519.1999999993</v>
       </c>
       <c r="N29" t="n">
-        <v>960875.9999999981</v>
+        <v>-304012.7999999998</v>
       </c>
       <c r="O29" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-688348.8</v>
+        <v>-282506.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2740224.723207489</v>
+        <v>-2673168.284554336</v>
       </c>
       <c r="R29" t="n">
-        <v>-137227.3574029405</v>
+        <v>-37287.0989063938</v>
       </c>
       <c r="S29" t="n">
-        <v>-172463.5388648115</v>
+        <v>-48108.23087990579</v>
       </c>
       <c r="T29" t="n">
-        <v>-98374.87218603361</v>
+        <v>-17970.39766125279</v>
       </c>
       <c r="U29" t="n">
-        <v>-126968.7210791056</v>
+        <v>-23276.05176574974</v>
       </c>
       <c r="V29" t="n">
-        <v>-5163.954714767495</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6835.90874140407</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-93784.39324371422</v>
+        <v>-32340.03664104257</v>
       </c>
       <c r="Y29" t="n">
-        <v>-122336.8283513487</v>
+        <v>-42351.32790704454</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2877452.08061043</v>
+        <v>-2710455.38346073</v>
       </c>
       <c r="AA29" t="n">
-        <v>-2912688.262072301</v>
+        <v>-2721276.515434242</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.4985468619151155</v>
+        <v>0.3571902709739262</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.4752831074570369</v>
+        <v>0.6428097290260737</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.02617003062784767</v>
+        <v>-0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.4956976585723808</v>
+        <v>0.3546698326491129</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.4776143199328033</v>
+        <v>0.6453301673508871</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.026688021494816</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -3489,7 +3489,7 @@
         <v>2028</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3500,91 +3500,91 @@
         <v>744</v>
       </c>
       <c r="E30" t="n">
-        <v>6.549999999999997</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4500000000000028</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H30" t="n">
-        <v>-35.1</v>
+        <v>-35.13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="K30" t="n">
-        <v>22.35</v>
+        <v>16</v>
       </c>
       <c r="L30" t="n">
-        <v>-3773297.028858003</v>
+        <v>-2546272.317971877</v>
       </c>
       <c r="M30" t="n">
-        <v>684591.5999999996</v>
+        <v>-311252.4000000004</v>
       </c>
       <c r="N30" t="n">
-        <v>916161.5999999996</v>
+        <v>10155.59999999963</v>
       </c>
       <c r="O30" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-393018</v>
+        <v>-321408</v>
       </c>
       <c r="Q30" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R30" t="n">
-        <v>-82416.81844653877</v>
+        <v>-36686.5610216327</v>
       </c>
       <c r="S30" t="n">
-        <v>-104736.9531723292</v>
+        <v>-48274.69665247572</v>
       </c>
       <c r="T30" t="n">
-        <v>-63232.21901386473</v>
+        <v>-605.0082330495604</v>
       </c>
       <c r="U30" t="n">
-        <v>-81702.47491789794</v>
+        <v>-793.4625441016112</v>
       </c>
       <c r="V30" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>-51198.13198297208</v>
+        <v>-36732.94564834286</v>
       </c>
       <c r="Y30" t="n">
-        <v>-66512.32790879796</v>
+        <v>-48294.78592381565</v>
       </c>
       <c r="Z30" t="n">
-        <v>-3171122.247304542</v>
+        <v>-2894211.278993508</v>
       </c>
       <c r="AA30" t="n">
-        <v>-3193442.382030332</v>
+        <v>-2905799.414624352</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.5309189424662318</v>
+        <v>0.0162035722410346</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.4298767070421168</v>
+        <v>0.9837964277589655</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.03920435049165122</v>
+        <v>-0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.5290776891620932</v>
+        <v>0.01616400195293578</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.4307114170793543</v>
+        <v>0.9838359980470642</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.04021089375855241</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -3592,7 +3592,7 @@
         <v>2028</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3600,94 +3600,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="E31" t="n">
-        <v>4.760000000000005</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.239999999999995</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>-35.48</v>
+        <v>-34.21</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.54</v>
+        <v>19.7</v>
       </c>
       <c r="K31" t="n">
-        <v>21.7</v>
+        <v>16.1</v>
       </c>
       <c r="L31" t="n">
-        <v>-3307716.190867164</v>
+        <v>-2672862.501263107</v>
       </c>
       <c r="M31" t="n">
-        <v>418282.0799999991</v>
+        <v>-92484</v>
       </c>
       <c r="N31" t="n">
-        <v>622836.4800000004</v>
+        <v>223236</v>
       </c>
       <c r="O31" t="n">
-        <v>151032</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-355586.4</v>
+        <v>-315720</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2889434.110867164</v>
+        <v>-2765346.501263107</v>
       </c>
       <c r="R31" t="n">
-        <v>-64301.17601332843</v>
+        <v>-38754.47887767475</v>
       </c>
       <c r="S31" t="n">
-        <v>-81457.69572480446</v>
+        <v>-50003.30276550013</v>
       </c>
       <c r="T31" t="n">
-        <v>-42987.32091934924</v>
+        <v>-13299.02890158361</v>
       </c>
       <c r="U31" t="n">
-        <v>-55544.00215546219</v>
+        <v>-17441.54993254385</v>
       </c>
       <c r="V31" t="n">
-        <v>-4367.981289864869</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-5808.925337916347</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-46462.74336877802</v>
+        <v>-36047.90059815053</v>
       </c>
       <c r="Y31" t="n">
-        <v>-60267.50812607391</v>
+        <v>-47393.0013169503</v>
       </c>
       <c r="Z31" t="n">
-        <v>-2953735.286880493</v>
+        <v>-2804100.980140782</v>
       </c>
       <c r="AA31" t="n">
-        <v>-2970891.806591969</v>
+        <v>-2815349.804028607</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.4581988534776429</v>
+        <v>0.2695006363395976</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4952431388069468</v>
+        <v>0.7304993636604024</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.04655800771541026</v>
+        <v>-0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.4566995823732954</v>
+        <v>0.2690162821583489</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.4955376768641872</v>
+        <v>0.7309837178416511</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.04776274076251742</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
@@ -3695,7 +3695,7 @@
         <v>2028</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3706,91 +3706,91 @@
         <v>744</v>
       </c>
       <c r="E32" t="n">
-        <v>7.069999999999993</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06999999999999318</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H32" t="n">
-        <v>-35.13</v>
+        <v>-33.59</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.2</v>
+        <v>20.66</v>
       </c>
       <c r="K32" t="n">
-        <v>23</v>
+        <v>14.1</v>
       </c>
       <c r="L32" t="n">
-        <v>-3839520.468858003</v>
+        <v>-2716201.917971876</v>
       </c>
       <c r="M32" t="n">
-        <v>750815.0399999991</v>
+        <v>-141322.8000000007</v>
       </c>
       <c r="N32" t="n">
-        <v>988895.0399999991</v>
+        <v>169743.5999999996</v>
       </c>
       <c r="O32" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-399528</v>
+        <v>-311066.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R32" t="n">
-        <v>-87127.6533367388</v>
+        <v>-37058.72561224108</v>
       </c>
       <c r="S32" t="n">
-        <v>-110693.5154314701</v>
+        <v>-48007.85300357685</v>
       </c>
       <c r="T32" t="n">
-        <v>-68252.18143939301</v>
+        <v>-10112.28046667645</v>
       </c>
       <c r="U32" t="n">
-        <v>-88188.77827015864</v>
+        <v>-13262.15966568958</v>
       </c>
       <c r="V32" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-52269.24225348595</v>
+        <v>-35831.00674554768</v>
       </c>
       <c r="Y32" t="n">
-        <v>-67936.30161011525</v>
+        <v>-46506.22653153211</v>
       </c>
       <c r="Z32" t="n">
-        <v>-3175833.082194742</v>
+        <v>-2894583.443584117</v>
       </c>
       <c r="AA32" t="n">
-        <v>-3199398.944289473</v>
+        <v>-2905532.570975453</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.5451859553907016</v>
+        <v>0.2201035467916165</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4175171573207404</v>
+        <v>0.7798964532083836</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.03729688728855807</v>
+        <v>-0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.5432530526019211</v>
+        <v>0.2218925507194984</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.4184954589020357</v>
+        <v>0.7781074492805017</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.03825148849604299</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -3798,7 +3798,7 @@
         <v>2028</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3809,91 +3809,91 @@
         <v>720</v>
       </c>
       <c r="E33" t="n">
-        <v>8.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>-34.21</v>
+        <v>-33.32</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.7</v>
+        <v>21.42</v>
       </c>
       <c r="K33" t="n">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="L33" t="n">
-        <v>-3916732.169862583</v>
+        <v>-2612202.501263107</v>
       </c>
       <c r="M33" t="n">
-        <v>927662.4000000004</v>
+        <v>-153144</v>
       </c>
       <c r="N33" t="n">
-        <v>1162742.4</v>
+        <v>140400</v>
       </c>
       <c r="O33" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-391320</v>
+        <v>-293544</v>
       </c>
       <c r="Q33" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2765346.501263107</v>
       </c>
       <c r="R33" t="n">
-        <v>-95755.55725613714</v>
+        <v>-34884.83585831495</v>
       </c>
       <c r="S33" t="n">
-        <v>-122431.3160991117</v>
+        <v>-45040.31374374156</v>
       </c>
       <c r="T33" t="n">
-        <v>-80250.88815500044</v>
+        <v>-8364.169120493116</v>
       </c>
       <c r="U33" t="n">
-        <v>-103692.3308857039</v>
+        <v>-10969.52825946179</v>
       </c>
       <c r="V33" t="n">
-        <v>-4518.601334342985</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-6009.233108189324</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>-51134.17189378566</v>
+        <v>-33732.85804595967</v>
       </c>
       <c r="Y33" t="n">
-        <v>-66341.03569201348</v>
+        <v>-44001.60125858611</v>
       </c>
       <c r="Z33" t="n">
-        <v>-3084825.327118719</v>
+        <v>-2800231.337121422</v>
       </c>
       <c r="AA33" t="n">
-        <v>-3111501.085961694</v>
+        <v>-2810386.815006849</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.5904983525702324</v>
+        <v>0.1986878809142737</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.3762530852618617</v>
+        <v>0.8013121190857264</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03324856216790579</v>
+        <v>-0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.589018402765641</v>
+        <v>0.1995507160874386</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.3768464894882171</v>
+        <v>0.8004492839125613</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.03413510774614173</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34">
@@ -3901,7 +3901,7 @@
         <v>2028</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3912,91 +3912,91 @@
         <v>744</v>
       </c>
       <c r="E34" t="n">
-        <v>8.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H34" t="n">
-        <v>-33.59</v>
+        <v>-33.26</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.66</v>
+        <v>21.38</v>
       </c>
       <c r="K34" t="n">
-        <v>21.1</v>
+        <v>12.3</v>
       </c>
       <c r="L34" t="n">
-        <v>-4003721.268858002</v>
+        <v>-2622123.117971877</v>
       </c>
       <c r="M34" t="n">
-        <v>915015.8399999999</v>
+        <v>-235401.6000000006</v>
       </c>
       <c r="N34" t="n">
-        <v>1142754.239999999</v>
+        <v>60933.59999999963</v>
       </c>
       <c r="O34" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-389186.4</v>
+        <v>-296335.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R34" t="n">
-        <v>-93995.51460047737</v>
+        <v>-34598.04019887609</v>
       </c>
       <c r="S34" t="n">
-        <v>-120120.0295566688</v>
+        <v>-44616.08643834397</v>
       </c>
       <c r="T34" t="n">
-        <v>-78871.33272416389</v>
+        <v>-3630.049398293404</v>
       </c>
       <c r="U34" t="n">
-        <v>-101909.8045922481</v>
+        <v>-4760.775264605818</v>
       </c>
       <c r="V34" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-50318.04425050185</v>
+        <v>-33984.35777623822</v>
       </c>
       <c r="Y34" t="n">
-        <v>-64798.79958436648</v>
+        <v>-44513.20095053001</v>
       </c>
       <c r="Z34" t="n">
-        <v>-3182700.94345848</v>
+        <v>-2892122.758170752</v>
       </c>
       <c r="AA34" t="n">
-        <v>-3208825.458414672</v>
+        <v>-2902140.80441022</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.5892137949620883</v>
+        <v>0.09650688847626655</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.3759044608970474</v>
+        <v>0.9034931115237333</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.03488174414086451</v>
+        <v>-0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.5893528672759494</v>
+        <v>0.09661845116415463</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3747368418954943</v>
+        <v>0.9033815488358453</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.03591029082855634</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
@@ -4004,7 +4004,7 @@
         <v>2028</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4012,94 +4012,94 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H35" t="n">
-        <v>-33.32</v>
+        <v>-33.61</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.42</v>
+        <v>20.98</v>
       </c>
       <c r="K35" t="n">
-        <v>19.9</v>
+        <v>11.62</v>
       </c>
       <c r="L35" t="n">
-        <v>-3859045.769862585</v>
+        <v>-2425223.517971877</v>
       </c>
       <c r="M35" t="n">
-        <v>869976</v>
+        <v>-432301.2000000011</v>
       </c>
       <c r="N35" t="n">
-        <v>1082880</v>
+        <v>-146530.8000000007</v>
       </c>
       <c r="O35" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-369144</v>
+        <v>-285770.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R35" t="n">
-        <v>-89040.3533405897</v>
+        <v>-33708.95030858389</v>
       </c>
       <c r="S35" t="n">
-        <v>-113522.3791387226</v>
+        <v>-44724.44380253836</v>
       </c>
       <c r="T35" t="n">
-        <v>-74738.89467287638</v>
+        <v>-8661.532493438684</v>
       </c>
       <c r="U35" t="n">
-        <v>-96570.27323464915</v>
+        <v>-11218.79896529521</v>
       </c>
       <c r="V35" t="n">
-        <v>-4518.601334342985</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6009.233108189324</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-47162.6934580692</v>
+        <v>-32891.04701587995</v>
       </c>
       <c r="Y35" t="n">
-        <v>-60794.54291178881</v>
+        <v>-43019.50325445474</v>
       </c>
       <c r="Z35" t="n">
-        <v>-3078110.123203172</v>
+        <v>-2891233.668280459</v>
       </c>
       <c r="AA35" t="n">
-        <v>-3102592.149001305</v>
+        <v>-2902249.161774414</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.5911942941154791</v>
+        <v>0.208447528305583</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.3730629866760226</v>
+        <v>0.7915524716944171</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.03574271920849847</v>
+        <v>-0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.5910992209303643</v>
+        <v>0.2068427385474112</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3721187250310312</v>
+        <v>0.7931572614525887</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.03678205403860443</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36">
@@ -4107,7 +4107,7 @@
         <v>2028</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4115,94 +4115,94 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E36" t="n">
-        <v>7.420000000000002</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4200000000000017</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H36" t="n">
-        <v>-33.26</v>
+        <v>-34.23</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>21.38</v>
+        <v>19.9</v>
       </c>
       <c r="K36" t="n">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="L36" t="n">
-        <v>-3913548.468858003</v>
+        <v>-2191254.501263106</v>
       </c>
       <c r="M36" t="n">
-        <v>824843.0399999991</v>
+        <v>-574092</v>
       </c>
       <c r="N36" t="n">
-        <v>1037850.239999999</v>
+        <v>-299052</v>
       </c>
       <c r="O36" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-374455.2</v>
+        <v>-275040</v>
       </c>
       <c r="Q36" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2765346.501263107</v>
       </c>
       <c r="R36" t="n">
-        <v>-86668.68880162708</v>
+        <v>-36646.14670954196</v>
       </c>
       <c r="S36" t="n">
-        <v>-110557.1215848565</v>
+        <v>-46973.25734317445</v>
       </c>
       <c r="T36" t="n">
-        <v>-71631.00230272798</v>
+        <v>-17677.16149251912</v>
       </c>
       <c r="U36" t="n">
-        <v>-92554.55937264037</v>
+        <v>-22896.23934469517</v>
       </c>
       <c r="V36" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>-47693.70249028003</v>
+        <v>-31558.03608027379</v>
       </c>
       <c r="Y36" t="n">
-        <v>-61486.79475324704</v>
+        <v>-41201.6067355856</v>
       </c>
       <c r="Z36" t="n">
-        <v>-3175374.11765963</v>
+        <v>-2801992.647972649</v>
       </c>
       <c r="AA36" t="n">
-        <v>-3199262.55044286</v>
+        <v>-2812319.758606282</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.5776976704767193</v>
+        <v>0.359035047363909</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.3846454738773796</v>
+        <v>0.640964952636091</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.037656855645901</v>
+        <v>-0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.5775603273237766</v>
+        <v>0.3572076246683588</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.3836908040456067</v>
+        <v>0.6427923753316411</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03874886863061672</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37">
@@ -4210,7 +4210,7 @@
         <v>2028</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4221,91 +4221,91 @@
         <v>744</v>
       </c>
       <c r="E37" t="n">
-        <v>5.990000000000002</v>
+        <v>-2</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.009999999999998</v>
+        <v>-2</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.61</v>
+        <v>-34.54</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.98</v>
+        <v>19.14</v>
       </c>
       <c r="K37" t="n">
-        <v>18.62</v>
+        <v>13.4</v>
       </c>
       <c r="L37" t="n">
-        <v>-3724096.308858001</v>
+        <v>-2275419.117971877</v>
       </c>
       <c r="M37" t="n">
-        <v>635390.8799999999</v>
+        <v>-582105.5999999996</v>
       </c>
       <c r="N37" t="n">
-        <v>837833.2800000003</v>
+        <v>-290159.9999999991</v>
       </c>
       <c r="O37" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-363890.4</v>
+        <v>-291945.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R37" t="n">
-        <v>-74733.78969482178</v>
+        <v>-37702.89207356122</v>
       </c>
       <c r="S37" t="n">
-        <v>-95127.85570052864</v>
+        <v>-48882.8183143499</v>
       </c>
       <c r="T37" t="n">
-        <v>-57826.10563252671</v>
+        <v>-17151.54949196069</v>
       </c>
       <c r="U37" t="n">
-        <v>-74717.22515392506</v>
+        <v>-22215.44349563696</v>
       </c>
       <c r="V37" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-46322.66881346459</v>
+        <v>-33482.01089224286</v>
       </c>
       <c r="Y37" t="n">
-        <v>-59652.74000418552</v>
+        <v>-43648.00149732143</v>
       </c>
       <c r="Z37" t="n">
-        <v>-3163439.218552825</v>
+        <v>-2895227.610045437</v>
       </c>
       <c r="AA37" t="n">
-        <v>-3183833.284558532</v>
+        <v>-2906407.536286226</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.5314020460882387</v>
+        <v>0.3387387606523432</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.4256894134315808</v>
+        <v>0.6612612393476568</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.04290854048018049</v>
+        <v>-0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.5314944351453816</v>
+        <v>0.3372954982541843</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.4243345398344649</v>
+        <v>0.6627045017458157</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.04417102502015365</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38">
@@ -4313,7 +4313,7 @@
         <v>2028</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4324,91 +4324,91 @@
         <v>720</v>
       </c>
       <c r="E38" t="n">
-        <v>4.870000000000005</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.129999999999995</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H38" t="n">
-        <v>-34.23</v>
+        <v>-34.5</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>19.9</v>
+        <v>19.22</v>
       </c>
       <c r="K38" t="n">
-        <v>19.2</v>
+        <v>14.8</v>
       </c>
       <c r="L38" t="n">
-        <v>-3453872.969862583</v>
+        <v>-2399730.501263107</v>
       </c>
       <c r="M38" t="n">
-        <v>464803.2000000002</v>
+        <v>-365616</v>
       </c>
       <c r="N38" t="n">
-        <v>659203.2000000002</v>
+        <v>-67392</v>
       </c>
       <c r="O38" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-350640</v>
+        <v>-298224</v>
       </c>
       <c r="Q38" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2765346.501263107</v>
       </c>
       <c r="R38" t="n">
-        <v>-64699.86175733303</v>
+        <v>-34438.80206645549</v>
       </c>
       <c r="S38" t="n">
-        <v>-82155.17868284836</v>
+        <v>-45094.14059970443</v>
       </c>
       <c r="T38" t="n">
-        <v>-45497.30213211302</v>
+        <v>-3983.58568845578</v>
       </c>
       <c r="U38" t="n">
-        <v>-58787.15383159222</v>
+        <v>-5159.715908664467</v>
       </c>
       <c r="V38" t="n">
-        <v>-4518.601334342985</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6009.233108189324</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-44802.39188013605</v>
+        <v>-34140.43303550898</v>
       </c>
       <c r="Y38" t="n">
-        <v>-57988.69029401589</v>
+        <v>-44658.08232581893</v>
       </c>
       <c r="Z38" t="n">
-        <v>-3053769.631619915</v>
+        <v>-2799785.303329563</v>
       </c>
       <c r="AA38" t="n">
-        <v>-3071224.94854543</v>
+        <v>-2810440.641862812</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.4798367442254201</v>
+        <v>0.1044901828765417</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.4725078816948625</v>
+        <v>0.8955098171234582</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.04765537407971755</v>
+        <v>-0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4787809329602364</v>
+        <v>0.1035717372409478</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.4722779966461113</v>
+        <v>0.8964282627590522</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.04894107039365238</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39">
@@ -4416,7 +4416,7 @@
         <v>2028</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4427,297 +4427,91 @@
         <v>744</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-2</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H39" t="n">
-        <v>-34.54</v>
+        <v>-34.71</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>19.14</v>
+        <v>19.26</v>
       </c>
       <c r="K39" t="n">
-        <v>20.4</v>
+        <v>14.6</v>
       </c>
       <c r="L39" t="n">
-        <v>-3579447.828858003</v>
+        <v>-2427976.317971876</v>
       </c>
       <c r="M39" t="n">
-        <v>490742.4000000004</v>
+        <v>-429548.4000000004</v>
       </c>
       <c r="N39" t="n">
-        <v>699359.9999999991</v>
+        <v>-123318</v>
       </c>
       <c r="O39" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-370065.6</v>
+        <v>-306230.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
       <c r="R39" t="n">
-        <v>-68843.6048181972</v>
+        <v>-35893.07178209834</v>
       </c>
       <c r="S39" t="n">
-        <v>-87381.59284785351</v>
+        <v>-47020.7074292686</v>
       </c>
       <c r="T39" t="n">
-        <v>-48268.86947623171</v>
+        <v>-7289.408534083121</v>
       </c>
       <c r="U39" t="n">
-        <v>-62368.30146404332</v>
+        <v>-9441.563485645549</v>
       </c>
       <c r="V39" t="n">
-        <v>-4669.221378821074</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>-6209.5408784623</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>-47855.91397801901</v>
+        <v>-35026.07587661233</v>
       </c>
       <c r="Y39" t="n">
-        <v>-61940.89469884474</v>
+        <v>-45834.81453865662</v>
       </c>
       <c r="Z39" t="n">
-        <v>-3157549.033676201</v>
+        <v>-2893417.789753974</v>
       </c>
       <c r="AA39" t="n">
-        <v>-3176087.021705857</v>
+        <v>-2904545.425401144</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.4788863142819986</v>
+        <v>0.1722633838557851</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.4747892898717015</v>
+        <v>0.8277366161442149</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.04632439584629981</v>
+        <v>-0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4778494098076054</v>
+        <v>0.170806478700442</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.474574732356021</v>
+        <v>0.8291935212995579</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0475758578363735</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B40" t="n">
-        <v>11</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>720</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.519999999999996</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.480000000000004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-34.5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="K40" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-3654032.969862584</v>
-      </c>
-      <c r="M40" t="n">
-        <v>664963.2000000002</v>
-      </c>
-      <c r="N40" t="n">
-        <v>882547.2000000002</v>
-      </c>
-      <c r="O40" t="n">
-        <v>156240</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-373824</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-2989069.769862582</v>
-      </c>
-      <c r="R40" t="n">
-        <v>-78899.60759278668</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-100284.8502704451</v>
-      </c>
-      <c r="T40" t="n">
-        <v>-60912.19915839499</v>
-      </c>
-      <c r="U40" t="n">
-        <v>-78704.77268623978</v>
-      </c>
-      <c r="V40" t="n">
-        <v>-4518.601334342985</v>
-      </c>
-      <c r="W40" t="n">
-        <v>-6009.233108189324</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-48552.55795419131</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>-63082.43985385601</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>-3067969.377455369</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>-3089354.620133027</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0.5343955467565534</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.425961812458767</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.03964264078467953</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.5325214171492019</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.4268197355975317</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0.04065884725326646</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>744</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.149999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.8500000000000014</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-34.71</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K41" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-3726015.828858003</v>
-      </c>
-      <c r="M41" t="n">
-        <v>637310.3999999994</v>
-      </c>
-      <c r="N41" t="n">
-        <v>860212.7999999998</v>
-      </c>
-      <c r="O41" t="n">
-        <v>161448</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-384350.4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-3088705.428858003</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-78569.81067022801</v>
-      </c>
-      <c r="S41" t="n">
-        <v>-99794.4297201474</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-59370.70945576623</v>
-      </c>
-      <c r="U41" t="n">
-        <v>-76713.0108007745</v>
-      </c>
-      <c r="V41" t="n">
-        <v>-4669.221378821074</v>
-      </c>
-      <c r="W41" t="n">
-        <v>-6209.5408784623</v>
-      </c>
-      <c r="X41" t="n">
-        <v>-49840.33362502079</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>-64759.36973189132</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>-3167275.239528231</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>-3188499.858578151</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.5213432699466928</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.4376555837969496</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.0410011462563576</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.5194475401441657</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.4385057366067799</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0.04204672324905435</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
